--- a/excels/config/game/special_keyvalue.xlsx
+++ b/excels/config/game/special_keyvalue.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>index  下标</t>
   </si>
@@ -65,6 +65,9 @@
     <t>投射物速度</t>
   </si>
   <si>
+    <t>额外提高投射物速度</t>
+  </si>
+  <si>
     <t>Base 1</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
     <t>%增益时间</t>
   </si>
   <si>
+    <t>提高BUFF持续时间</t>
+  </si>
+  <si>
     <t>debuff_duration</t>
   </si>
   <si>
@@ -141,6 +147,15 @@
   </si>
   <si>
     <t>%治疗效率</t>
+  </si>
+  <si>
+    <t>extra_count</t>
+  </si>
+  <si>
+    <t>额外计数</t>
+  </si>
+  <si>
+    <t>计数型技能额外目标</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1127,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1176,24 +1191,26 @@
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4">
@@ -1201,18 +1218,18 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4">
@@ -1220,18 +1237,18 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
@@ -1239,60 +1256,60 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4">
         <v>100</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4">
         <v>100</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
@@ -1300,18 +1317,18 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
@@ -1319,37 +1336,39 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="4">
         <v>100</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
@@ -1357,18 +1376,18 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
@@ -1376,18 +1395,18 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
@@ -1395,20 +1414,32 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>

--- a/excels/config/game/special_keyvalue.xlsx
+++ b/excels/config/game/special_keyvalue.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="special_keyvalue" sheetId="1" r:id="rId1"/>
+    <sheet name="__Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>index  下标</t>
   </si>
@@ -59,13 +60,13 @@
     <t>[}]</t>
   </si>
   <si>
-    <t>projectile_speed</t>
-  </si>
-  <si>
-    <t>投射物速度</t>
-  </si>
-  <si>
-    <t>额外提高投射物速度</t>
+    <t>skv_count</t>
+  </si>
+  <si>
+    <t>计数型</t>
+  </si>
+  <si>
+    <t>计数型技能数量额外+1</t>
   </si>
   <si>
     <t>Base 1</t>
@@ -74,88 +75,139 @@
     <t>Correct 2</t>
   </si>
   <si>
-    <t>bounce_count</t>
-  </si>
-  <si>
-    <t>弹射次数</t>
-  </si>
-  <si>
-    <t>projectile_count</t>
-  </si>
-  <si>
-    <t>投射数量</t>
-  </si>
-  <si>
-    <t>aoe_radius</t>
-  </si>
-  <si>
-    <t>AOE范围</t>
-  </si>
-  <si>
-    <t>damage_interval_cut</t>
-  </si>
-  <si>
-    <t>%周期效率</t>
-  </si>
-  <si>
-    <t>越大越好</t>
-  </si>
-  <si>
-    <t>cooldown_cut</t>
-  </si>
-  <si>
-    <t>%冷却效率</t>
-  </si>
-  <si>
-    <t>公式为 技能冷却/急速效率</t>
-  </si>
-  <si>
-    <t>summoned_duration</t>
-  </si>
-  <si>
-    <t>%召唤物时间</t>
-  </si>
-  <si>
-    <t>summoned_damage</t>
-  </si>
-  <si>
-    <t>%召唤物伤害</t>
-  </si>
-  <si>
-    <t>buff_duration</t>
-  </si>
-  <si>
-    <t>%增益时间</t>
-  </si>
-  <si>
-    <t>提高BUFF持续时间</t>
-  </si>
-  <si>
-    <t>debuff_duration</t>
-  </si>
-  <si>
-    <t>%减益时间</t>
-  </si>
-  <si>
-    <t>shield_amplify</t>
-  </si>
-  <si>
-    <t>%护盾效率</t>
-  </si>
-  <si>
-    <t>health_amplify</t>
-  </si>
-  <si>
-    <t>%治疗效率</t>
-  </si>
-  <si>
-    <t>extra_count</t>
-  </si>
-  <si>
-    <t>额外计数</t>
-  </si>
-  <si>
-    <t>计数型技能额外目标</t>
+    <t>skv_radius</t>
+  </si>
+  <si>
+    <t>范围型</t>
+  </si>
+  <si>
+    <t>范围型技能范围+20%</t>
+  </si>
+  <si>
+    <t>skv_duration</t>
+  </si>
+  <si>
+    <t>持续型</t>
+  </si>
+  <si>
+    <t>持续型技能持续时间+1秒</t>
+  </si>
+  <si>
+    <t>skv_growth</t>
+  </si>
+  <si>
+    <t>成长型</t>
+  </si>
+  <si>
+    <t>成长型技能成长效果+20%</t>
+  </si>
+  <si>
+    <t>skv_damage</t>
+  </si>
+  <si>
+    <t>伤害型</t>
+  </si>
+  <si>
+    <t>伤害型技能伤害结果+20%</t>
+  </si>
+  <si>
+    <t>skv_financing</t>
+  </si>
+  <si>
+    <t>理财型</t>
+  </si>
+  <si>
+    <t>理财型技能收益效果+20%</t>
+  </si>
+  <si>
+    <t>skv_defense</t>
+  </si>
+  <si>
+    <t>防御型</t>
+  </si>
+  <si>
+    <t>防御型技能效果+20%</t>
+  </si>
+  <si>
+    <t>skv_summoned_duration</t>
+  </si>
+  <si>
+    <t>召唤型</t>
+  </si>
+  <si>
+    <t>召唤型技能召唤物存在时间+1秒</t>
+  </si>
+  <si>
+    <t>skv_income</t>
+  </si>
+  <si>
+    <t>收益型</t>
+  </si>
+  <si>
+    <t>收益型技能效果+20%</t>
+  </si>
+  <si>
+    <t>skv_haste</t>
+  </si>
+  <si>
+    <t>技能急速</t>
+  </si>
+  <si>
+    <t>急速值</t>
+  </si>
+  <si>
+    <t>skv_fire</t>
+  </si>
+  <si>
+    <t>火元素亲和</t>
+  </si>
+  <si>
+    <t>火元素技能效果+10%</t>
+  </si>
+  <si>
+    <t>skv_thunder</t>
+  </si>
+  <si>
+    <t>雷元素亲和</t>
+  </si>
+  <si>
+    <t>雷元素技能效果+10%</t>
+  </si>
+  <si>
+    <t>skv_ice</t>
+  </si>
+  <si>
+    <t>冰元素亲和</t>
+  </si>
+  <si>
+    <t>冰元素技能效果+10%</t>
+  </si>
+  <si>
+    <t>skv_wind</t>
+  </si>
+  <si>
+    <t>风元素亲和</t>
+  </si>
+  <si>
+    <t>风元素技能效果+10%</t>
+  </si>
+  <si>
+    <t>skv_light</t>
+  </si>
+  <si>
+    <t>光元素亲和</t>
+  </si>
+  <si>
+    <t>光元素技能效果+25%</t>
+  </si>
+  <si>
+    <t>skv_dark</t>
+  </si>
+  <si>
+    <t>暗元素亲和</t>
+  </si>
+  <si>
+    <t>暗元素技能效果+25%</t>
   </si>
 </sst>
 </file>
@@ -168,7 +220,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,22 +229,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -341,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,7 +395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5A5A5A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,12 +592,168 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -667,150 +874,204 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -865,7 +1126,93 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6E6E6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thick">
+          <color rgb="FF5A5A5A"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF5A5A5A"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5A5A5A"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5A5A5A"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF5A5A5A"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thick">
+          <color rgb="FF595959"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF595959"/>
+        </right>
+        <top style="thick">
+          <color rgb="FF595959"/>
+        </top>
+        <bottom/>
+        <vertical style="medium">
+          <color theme="0"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thick">
+          <color rgb="FF595959"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF595959"/>
+        </right>
+        <top style="thick">
+          <color rgb="FF595959"/>
+        </top>
+        <bottom style="thick">
+          <color rgb="FF595959"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{338EA224-CBF9-4195-97AA-36A807B056A1}">
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1124,60 +1471,60 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="23.5083333333333" customWidth="1"/>
+    <col min="1" max="1" width="26.5083333333333" customWidth="1"/>
     <col min="2" max="2" width="25.8416666666667" customWidth="1"/>
-    <col min="3" max="3" width="26.5083333333333" customWidth="1"/>
+    <col min="3" max="3" width="28.8416666666667" customWidth="1"/>
     <col min="4" max="4" width="10.5083333333333" customWidth="1"/>
     <col min="5" max="5" width="17.175" customWidth="1"/>
     <col min="6" max="6" width="10.5083333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.3416666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.5083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="8">
         <v>2</v>
       </c>
       <c r="H2" t="s">
@@ -1185,310 +1532,597 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11">
         <v>0</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4">
-        <v>100</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="A7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4">
-        <v>100</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="A8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
-        <v>100</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="A9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
-        <v>100</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="A10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4">
-        <v>100</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="A11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
-        <v>100</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="A12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
-        <v>100</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="A13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
-        <v>100</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="A14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="A15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="A16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="A18" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="str">
+        <f>special_keyvalue!A3</f>
+        <v>skv_count</v>
+      </c>
+      <c r="C2" t="str">
+        <f>""""&amp;special_keyvalue!A3&amp;""""</f>
+        <v>"skv_count"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="str">
+        <f>special_keyvalue!A4</f>
+        <v>skv_radius</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"|"""&amp;special_keyvalue!A4&amp;""""</f>
+        <v>|"skv_radius"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="str">
+        <f>special_keyvalue!A5</f>
+        <v>skv_duration</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"|"""&amp;special_keyvalue!A5&amp;""""</f>
+        <v>|"skv_duration"</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:4">
+      <c r="A5" t="str">
+        <f>special_keyvalue!A6</f>
+        <v>skv_growth</v>
+      </c>
+      <c r="C5" t="str">
+        <f>"|"""&amp;special_keyvalue!A6&amp;""""</f>
+        <v>|"skv_growth"</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:4">
+      <c r="A6" t="str">
+        <f>special_keyvalue!A7</f>
+        <v>skv_damage</v>
+      </c>
+      <c r="C6" t="str">
+        <f>"|"""&amp;special_keyvalue!A7&amp;""""</f>
+        <v>|"skv_damage"</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:4">
+      <c r="A7" t="str">
+        <f>special_keyvalue!A8</f>
+        <v>skv_financing</v>
+      </c>
+      <c r="C7" t="str">
+        <f>"|"""&amp;special_keyvalue!A8&amp;""""</f>
+        <v>|"skv_financing"</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:4">
+      <c r="A8" t="str">
+        <f>special_keyvalue!A9</f>
+        <v>skv_defense</v>
+      </c>
+      <c r="C8" t="str">
+        <f>"|"""&amp;special_keyvalue!A9&amp;""""</f>
+        <v>|"skv_defense"</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:4">
+      <c r="A9" t="str">
+        <f>special_keyvalue!A10</f>
+        <v>skv_summoned_duration</v>
+      </c>
+      <c r="C9" t="str">
+        <f>"|"""&amp;special_keyvalue!A10&amp;""""</f>
+        <v>|"skv_summoned_duration"</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:4">
+      <c r="A10" t="str">
+        <f>special_keyvalue!A11</f>
+        <v>skv_income</v>
+      </c>
+      <c r="C10" t="str">
+        <f>"|"""&amp;special_keyvalue!A11&amp;""""</f>
+        <v>|"skv_income"</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:4">
+      <c r="A11" t="str">
+        <f>special_keyvalue!A12</f>
+        <v>skv_haste</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"|"""&amp;special_keyvalue!A12&amp;""""</f>
+        <v>|"skv_haste"</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:4">
+      <c r="A12" t="str">
+        <f>special_keyvalue!A13</f>
+        <v>skv_fire</v>
+      </c>
+      <c r="C12" t="str">
+        <f>"|"""&amp;special_keyvalue!A13&amp;""""</f>
+        <v>|"skv_fire"</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:4">
+      <c r="A13" t="str">
+        <f>special_keyvalue!A14</f>
+        <v>skv_thunder</v>
+      </c>
+      <c r="C13" t="str">
+        <f>"|"""&amp;special_keyvalue!A14&amp;""""</f>
+        <v>|"skv_thunder"</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="str">
+        <f>special_keyvalue!A15</f>
+        <v>skv_ice</v>
+      </c>
+      <c r="C14" t="str">
+        <f>"|"""&amp;special_keyvalue!A15&amp;""""</f>
+        <v>|"skv_ice"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="str">
+        <f>special_keyvalue!A16</f>
+        <v>skv_wind</v>
+      </c>
+      <c r="C15" t="str">
+        <f>"|"""&amp;special_keyvalue!A16&amp;""""</f>
+        <v>|"skv_wind"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="str">
+        <f>special_keyvalue!A17</f>
+        <v>skv_light</v>
+      </c>
+      <c r="C16" t="str">
+        <f>"|"""&amp;special_keyvalue!A17&amp;""""</f>
+        <v>|"skv_light"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="str">
+        <f>special_keyvalue!A18</f>
+        <v>skv_dark</v>
+      </c>
+      <c r="C17" t="str">
+        <f>"|"""&amp;special_keyvalue!A18&amp;""""</f>
+        <v>|"skv_dark"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <f>special_keyvalue!A19</f>
+        <v>0</v>
+      </c>
+      <c r="C18" t="str">
+        <f>""""&amp;special_keyvalue!A19&amp;""""</f>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <f>special_keyvalue!A20</f>
+        <v>0</v>
+      </c>
+      <c r="C19" t="str">
+        <f>""""&amp;special_keyvalue!A20&amp;""""</f>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="str">
+        <f>""""&amp;special_keyvalue!A21&amp;""""</f>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="str">
+        <f>""""&amp;special_keyvalue!A22&amp;""""</f>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="str">
+        <f>""""&amp;special_keyvalue!A23&amp;""""</f>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="str">
+        <f>""""&amp;special_keyvalue!A24&amp;""""</f>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="str">
+        <f>""""&amp;special_keyvalue!A25&amp;""""</f>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="str">
+        <f>""""&amp;special_keyvalue!A26&amp;""""</f>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="str">
+        <f>""""&amp;special_keyvalue!A27&amp;""""</f>
+        <v>""</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excels/config/game/special_keyvalue.xlsx
+++ b/excels/config/game/special_keyvalue.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>index  下标</t>
   </si>
@@ -72,7 +72,10 @@
     <t>Base 1</t>
   </si>
   <si>
-    <t>Correct 2</t>
+    <t>Percent 2</t>
+  </si>
+  <si>
+    <t>Correct 3</t>
   </si>
   <si>
     <t>skv_radius</t>
@@ -237,7 +240,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -401,7 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5A5A5A"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -627,13 +630,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color rgb="FF595959"/>
       </left>
       <right style="medium">
         <color theme="0"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color rgb="FF595959"/>
       </top>
       <bottom/>
@@ -646,7 +649,7 @@
       <right style="medium">
         <color theme="0"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color rgb="FF595959"/>
       </top>
       <bottom/>
@@ -656,103 +659,141 @@
       <left style="medium">
         <color theme="0"/>
       </left>
-      <right style="thick">
+      <right style="medium">
         <color rgb="FF595959"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color rgb="FF595959"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
+      <left style="medium">
+        <color rgb="FF5A5A5A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFEBEBEB"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEBEBEB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFEBEBEB"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEBEBEB"/>
       </left>
       <right style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5A5A5A"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5A5A5A"/>
       </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
+      <right style="thin">
+        <color rgb="FFEBEBEB"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FFEBEBEB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
+      <left style="thin">
+        <color rgb="FFEBEBEB"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFEBEBEB"/>
       </right>
       <top style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color rgb="FFEBEBEB"/>
       </top>
       <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEBEBEB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF5A5A5A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEBEBEB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF5A5A5A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFEBEBEB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEBEBEB"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF5A5A5A"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFEBEBEB"/>
       </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
+      <right style="thin">
+        <color rgb="FFEBEBEB"/>
       </right>
       <top style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color rgb="FFEBEBEB"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF5A5A5A"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
+      <left style="thin">
+        <color rgb="FFEBEBEB"/>
       </left>
       <right style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5A5A5A"/>
       </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
+      <top style="thin">
+        <color rgb="FFEBEBEB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF5A5A5A"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,7 +921,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,34 +933,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1004,7 +1045,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,40 +1067,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,11 +1082,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1126,7 +1152,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1205,12 +1231,71 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FF595959"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF595959"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF595959"/>
+        </top>
+        <bottom/>
+        <vertical style="medium">
+          <color theme="0"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FF5A5A5A"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF5A5A5A"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF5A5A5A"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF5A5A5A"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFEBEBEB"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFEBEBEB"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{338EA224-CBF9-4195-97AA-36A807B056A1}">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9FA56741-C836-4B8C-9069-E6410583FB7E}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{FECCFBB2-6E87-4E2C-96AB-62BAF7B95A6C}">
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1471,13 +1556,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="26.5083333333333" customWidth="1"/>
     <col min="2" max="2" width="25.8416666666667" customWidth="1"/>
@@ -1485,10 +1570,11 @@
     <col min="4" max="4" width="10.5083333333333" customWidth="1"/>
     <col min="5" max="5" width="17.175" customWidth="1"/>
     <col min="6" max="6" width="10.5083333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.5083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.675" customWidth="1"/>
+    <col min="8" max="8" width="12.5083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:7">
+    <row r="1" ht="22.5" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1505,11 +1591,13 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:8">
+      <c r="H1" s="5"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1524,348 +1612,325 @@
       <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8">
+        <v>3</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:7">
+    <row r="3" ht="22.5" customHeight="1" spans="1:9">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A4" s="6" t="s">
+      <c r="H3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:7">
+      <c r="C4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:9">
       <c r="A5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A6" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:7">
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:9">
       <c r="A7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A8" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A9" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A10" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A11" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A12" s="17" t="s">
+      <c r="C11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A13" s="15" t="s">
+      <c r="C12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A14" s="17" t="s">
+      <c r="C13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A15" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A16" s="17" t="s">
+      <c r="C15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A17" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A18" s="19" t="s">
+      <c r="C17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="20">
-        <v>0</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="C18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1877,10 +1942,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D26"/>
+  <dimension ref="A2:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+      <selection activeCell="A3" sqref="A3:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2065,8 +2130,8 @@
         <v>0</v>
       </c>
       <c r="C18" t="str">
-        <f>""""&amp;special_keyvalue!A19&amp;""""</f>
-        <v>""</v>
+        <f>"|"""&amp;special_keyvalue!A19&amp;""""</f>
+        <v>|""</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2075,50 +2140,158 @@
         <v>0</v>
       </c>
       <c r="C19" t="str">
-        <f>""""&amp;special_keyvalue!A20&amp;""""</f>
-        <v>""</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
+        <f>"|"""&amp;special_keyvalue!A20&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <f>special_keyvalue!A21</f>
+        <v>0</v>
+      </c>
       <c r="C20" t="str">
-        <f>""""&amp;special_keyvalue!A21&amp;""""</f>
-        <v>""</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
+        <f>"|"""&amp;special_keyvalue!A21&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <f>special_keyvalue!A22</f>
+        <v>0</v>
+      </c>
       <c r="C21" t="str">
-        <f>""""&amp;special_keyvalue!A22&amp;""""</f>
-        <v>""</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
+        <f>"|"""&amp;special_keyvalue!A22&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <f>special_keyvalue!A23</f>
+        <v>0</v>
+      </c>
       <c r="C22" t="str">
-        <f>""""&amp;special_keyvalue!A23&amp;""""</f>
-        <v>""</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
+        <f>"|"""&amp;special_keyvalue!A23&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f>special_keyvalue!A24</f>
+        <v>0</v>
+      </c>
       <c r="C23" t="str">
-        <f>""""&amp;special_keyvalue!A24&amp;""""</f>
-        <v>""</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
+        <f>"|"""&amp;special_keyvalue!A24&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f>special_keyvalue!A25</f>
+        <v>0</v>
+      </c>
       <c r="C24" t="str">
-        <f>""""&amp;special_keyvalue!A25&amp;""""</f>
-        <v>""</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
+        <f>"|"""&amp;special_keyvalue!A25&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <f>special_keyvalue!A26</f>
+        <v>0</v>
+      </c>
       <c r="C25" t="str">
-        <f>""""&amp;special_keyvalue!A26&amp;""""</f>
-        <v>""</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
+        <f>"|"""&amp;special_keyvalue!A26&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <f>special_keyvalue!A27</f>
+        <v>0</v>
+      </c>
       <c r="C26" t="str">
-        <f>""""&amp;special_keyvalue!A27&amp;""""</f>
-        <v>""</v>
+        <f>"|"""&amp;special_keyvalue!A27&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <f>special_keyvalue!A28</f>
+        <v>0</v>
+      </c>
+      <c r="C27" t="str">
+        <f>"|"""&amp;special_keyvalue!A28&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f>special_keyvalue!A29</f>
+        <v>0</v>
+      </c>
+      <c r="C28" t="str">
+        <f>"|"""&amp;special_keyvalue!A29&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <f>special_keyvalue!A30</f>
+        <v>0</v>
+      </c>
+      <c r="C29" t="str">
+        <f>"|"""&amp;special_keyvalue!A30&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <f>special_keyvalue!A31</f>
+        <v>0</v>
+      </c>
+      <c r="C30" t="str">
+        <f>"|"""&amp;special_keyvalue!A31&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <f>special_keyvalue!A32</f>
+        <v>0</v>
+      </c>
+      <c r="C31" t="str">
+        <f>"|"""&amp;special_keyvalue!A32&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <f>special_keyvalue!A33</f>
+        <v>0</v>
+      </c>
+      <c r="C32" t="str">
+        <f>"|"""&amp;special_keyvalue!A33&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <f>special_keyvalue!A34</f>
+        <v>0</v>
+      </c>
+      <c r="C33" t="str">
+        <f>"|"""&amp;special_keyvalue!A34&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <f>special_keyvalue!A35</f>
+        <v>0</v>
+      </c>
+      <c r="C34" t="str">
+        <f>"|"""&amp;special_keyvalue!A35&amp;""""</f>
+        <v>|""</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/special_keyvalue.xlsx
+++ b/excels/config/game/special_keyvalue.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>index  下标</t>
   </si>
@@ -39,13 +39,16 @@
     <t>备注</t>
   </si>
   <si>
-    <t>默认值</t>
-  </si>
-  <si>
     <t>基础值</t>
   </si>
   <si>
-    <t>修改</t>
+    <t>百分比加成</t>
+  </si>
+  <si>
+    <t>乘算</t>
+  </si>
+  <si>
+    <t>修正</t>
   </si>
   <si>
     <t>key</t>
@@ -66,16 +69,16 @@
     <t>计数型</t>
   </si>
   <si>
-    <t>计数型技能数量额外+1</t>
-  </si>
-  <si>
     <t>Base 1</t>
   </si>
   <si>
     <t>Percent 2</t>
   </si>
   <si>
-    <t>Correct 3</t>
+    <t>Multiple 3</t>
+  </si>
+  <si>
+    <t>Correct 4</t>
   </si>
   <si>
     <t>skv_radius</t>
@@ -84,133 +87,88 @@
     <t>范围型</t>
   </si>
   <si>
-    <t>范围型技能范围+20%</t>
-  </si>
-  <si>
     <t>skv_duration</t>
   </si>
   <si>
     <t>持续型</t>
   </si>
   <si>
-    <t>持续型技能持续时间+1秒</t>
-  </si>
-  <si>
     <t>skv_growth</t>
   </si>
   <si>
     <t>成长型</t>
   </si>
   <si>
-    <t>成长型技能成长效果+20%</t>
-  </si>
-  <si>
     <t>skv_damage</t>
   </si>
   <si>
     <t>伤害型</t>
   </si>
   <si>
-    <t>伤害型技能伤害结果+20%</t>
-  </si>
-  <si>
     <t>skv_financing</t>
   </si>
   <si>
     <t>理财型</t>
   </si>
   <si>
-    <t>理财型技能收益效果+20%</t>
-  </si>
-  <si>
     <t>skv_defense</t>
   </si>
   <si>
     <t>防御型</t>
   </si>
   <si>
-    <t>防御型技能效果+20%</t>
-  </si>
-  <si>
     <t>skv_summoned_duration</t>
   </si>
   <si>
     <t>召唤型</t>
   </si>
   <si>
-    <t>召唤型技能召唤物存在时间+1秒</t>
-  </si>
-  <si>
     <t>skv_income</t>
   </si>
   <si>
     <t>收益型</t>
   </si>
   <si>
-    <t>收益型技能效果+20%</t>
-  </si>
-  <si>
     <t>skv_haste</t>
   </si>
   <si>
     <t>技能急速</t>
   </si>
   <si>
-    <t>急速值</t>
-  </si>
-  <si>
     <t>skv_fire</t>
   </si>
   <si>
     <t>火元素亲和</t>
   </si>
   <si>
-    <t>火元素技能效果+10%</t>
-  </si>
-  <si>
     <t>skv_thunder</t>
   </si>
   <si>
     <t>雷元素亲和</t>
   </si>
   <si>
-    <t>雷元素技能效果+10%</t>
-  </si>
-  <si>
     <t>skv_ice</t>
   </si>
   <si>
     <t>冰元素亲和</t>
   </si>
   <si>
-    <t>冰元素技能效果+10%</t>
-  </si>
-  <si>
     <t>skv_wind</t>
   </si>
   <si>
     <t>风元素亲和</t>
   </si>
   <si>
-    <t>风元素技能效果+10%</t>
-  </si>
-  <si>
     <t>skv_light</t>
   </si>
   <si>
     <t>光元素亲和</t>
   </si>
   <si>
-    <t>光元素技能效果+25%</t>
-  </si>
-  <si>
     <t>skv_dark</t>
   </si>
   <si>
     <t>暗元素亲和</t>
-  </si>
-  <si>
-    <t>暗元素技能效果+25%</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,13 +1040,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1288,12 +1240,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9FA56741-C836-4B8C-9069-E6410583FB7E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{50D4A37B-74BF-4D86-B6CF-2AC54A6DD06C}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{FECCFBB2-6E87-4E2C-96AB-62BAF7B95A6C}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{2167C300-388F-488A-B676-B03EBCD6917A}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1559,19 +1511,18 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="26.5083333333333" customWidth="1"/>
     <col min="2" max="2" width="25.8416666666667" customWidth="1"/>
-    <col min="3" max="3" width="28.8416666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.5083333333333" customWidth="1"/>
-    <col min="5" max="5" width="17.175" customWidth="1"/>
-    <col min="6" max="6" width="10.5083333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.675" customWidth="1"/>
-    <col min="8" max="8" width="12.5083333333333" customWidth="1"/>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="17.175" customWidth="1"/>
+    <col min="5" max="5" width="10.5083333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.675" customWidth="1"/>
+    <col min="7" max="8" width="12.5083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:9">
@@ -1584,87 +1535,85 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="17"/>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
       </c>
       <c r="F2" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="8">
-        <v>3</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:9">
       <c r="A5" s="9" t="s">
@@ -1673,264 +1622,208 @@
       <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="17"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:9">
       <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="17"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:9">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:9">
       <c r="A8" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:9">
       <c r="A9" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:9">
       <c r="A10" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:9">
       <c r="A11" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:9">
       <c r="A12" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="17"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:9">
       <c r="A13" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:9">
       <c r="A14" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="A18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/config/game/special_keyvalue.xlsx
+++ b/excels/config/game/special_keyvalue.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>index  下标</t>
   </si>
@@ -63,10 +63,13 @@
     <t>[}]</t>
   </si>
   <si>
-    <t>skv_count</t>
-  </si>
-  <si>
-    <t>计数型</t>
+    <t>skv_missile_count</t>
+  </si>
+  <si>
+    <t>弹道型</t>
+  </si>
+  <si>
+    <t>弹道数量</t>
   </si>
   <si>
     <t>Base 1</t>
@@ -87,64 +90,100 @@
     <t>范围型</t>
   </si>
   <si>
+    <t>技能范围</t>
+  </si>
+  <si>
     <t>skv_duration</t>
   </si>
   <si>
-    <t>持续型</t>
+    <t>持续型收益</t>
+  </si>
+  <si>
+    <t>【持续型】技能群体收益+10%</t>
   </si>
   <si>
     <t>skv_growth</t>
   </si>
   <si>
-    <t>成长型</t>
+    <t>持续型时间</t>
+  </si>
+  <si>
+    <t>【持续型】技能持续时间+1秒</t>
   </si>
   <si>
     <t>skv_damage</t>
   </si>
   <si>
-    <t>伤害型</t>
+    <t>成长型效果</t>
+  </si>
+  <si>
+    <t>【成长型】技能成长效果%</t>
   </si>
   <si>
     <t>skv_financing</t>
   </si>
   <si>
-    <t>理财型</t>
+    <t>技能伤害</t>
+  </si>
+  <si>
+    <t>技能伤害+20%（针对所有可造成伤害的技能）</t>
   </si>
   <si>
     <t>skv_defense</t>
   </si>
   <si>
-    <t>防御型</t>
+    <t>理财收益</t>
+  </si>
+  <si>
+    <t>【理财型】技能收益效果+20%</t>
   </si>
   <si>
     <t>skv_summoned_duration</t>
   </si>
   <si>
-    <t>召唤型</t>
+    <t>环绕伤害间隔</t>
+  </si>
+  <si>
+    <t>【环绕型】技能伤害间隔-0.1s</t>
   </si>
   <si>
     <t>skv_income</t>
   </si>
   <si>
-    <t>收益型</t>
+    <t>召唤物时间</t>
+  </si>
+  <si>
+    <t>【召唤型】技能召唤物存在时间+1秒</t>
   </si>
   <si>
     <t>skv_haste</t>
   </si>
   <si>
+    <t>增益收益</t>
+  </si>
+  <si>
+    <t>【增益型】技能效果+20%</t>
+  </si>
+  <si>
+    <t>skv_fire</t>
+  </si>
+  <si>
+    <t>技能蓝耗降低</t>
+  </si>
+  <si>
+    <t>技能蓝耗降低20%</t>
+  </si>
+  <si>
+    <t>skv_thunder</t>
+  </si>
+  <si>
     <t>技能急速</t>
   </si>
   <si>
-    <t>skv_fire</t>
+    <t>技能急速+10</t>
   </si>
   <si>
     <t>火元素亲和</t>
-  </si>
-  <si>
-    <t>skv_thunder</t>
-  </si>
-  <si>
-    <t>雷元素亲和</t>
   </si>
   <si>
     <t>skv_ice</t>
@@ -1003,7 +1042,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,6 +1077,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1240,12 +1285,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{50D4A37B-74BF-4D86-B6CF-2AC54A6DD06C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0B368C03-0D7F-441F-A5A5-3514E8AD21EC}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{2167C300-388F-488A-B676-B03EBCD6917A}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{76356567-5829-4158-8E21-E228F76359C4}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1508,21 +1553,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="26.5083333333333" customWidth="1"/>
     <col min="2" max="2" width="25.8416666666667" customWidth="1"/>
-    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="40.675" customWidth="1"/>
     <col min="4" max="4" width="17.175" customWidth="1"/>
     <col min="5" max="5" width="10.5083333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.675" customWidth="1"/>
-    <col min="7" max="8" width="12.5083333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.175" customWidth="1"/>
+    <col min="7" max="7" width="13.3416666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.5083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:9">
@@ -1548,7 +1594,7 @@
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
@@ -1573,7 +1619,7 @@
       <c r="H2" s="8">
         <v>4</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1584,193 +1630,217 @@
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="15"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:9">
       <c r="A5" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="15"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:9">
       <c r="A6" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="15"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:9">
       <c r="A7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="15"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:9">
       <c r="A8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="15"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:9">
       <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="15"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:9">
       <c r="A10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="15"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:9">
       <c r="A11" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="15"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:9">
       <c r="A12" s="9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="15"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:9">
       <c r="A13" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="15"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:9">
       <c r="A14" s="9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="15"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A15" s="9" t="s">
-        <v>39</v>
+      <c r="A15" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1778,14 +1848,14 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="15"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1793,14 +1863,14 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="15"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1808,22 +1878,50 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="15"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1851,11 +1949,11 @@
     <row r="2" spans="1:3">
       <c r="A2" t="str">
         <f>special_keyvalue!A3</f>
-        <v>skv_count</v>
+        <v>skv_missile_count</v>
       </c>
       <c r="C2" t="str">
         <f>""""&amp;special_keyvalue!A3&amp;""""</f>
-        <v>"skv_count"</v>
+        <v>"skv_missile_count"</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1979,62 +2077,62 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="str">
-        <f>special_keyvalue!A15</f>
+        <f>special_keyvalue!A16</f>
         <v>skv_ice</v>
       </c>
       <c r="C14" t="str">
-        <f>"|"""&amp;special_keyvalue!A15&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A16&amp;""""</f>
         <v>|"skv_ice"</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="str">
-        <f>special_keyvalue!A16</f>
+        <f>special_keyvalue!A17</f>
         <v>skv_wind</v>
       </c>
       <c r="C15" t="str">
-        <f>"|"""&amp;special_keyvalue!A16&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A17&amp;""""</f>
         <v>|"skv_wind"</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="str">
-        <f>special_keyvalue!A17</f>
+        <f>special_keyvalue!A18</f>
         <v>skv_light</v>
       </c>
       <c r="C16" t="str">
-        <f>"|"""&amp;special_keyvalue!A17&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A18&amp;""""</f>
         <v>|"skv_light"</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="str">
-        <f>special_keyvalue!A18</f>
+        <f>special_keyvalue!A19</f>
         <v>skv_dark</v>
       </c>
       <c r="C17" t="str">
-        <f>"|"""&amp;special_keyvalue!A18&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A19&amp;""""</f>
         <v>|"skv_dark"</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
-        <f>special_keyvalue!A19</f>
-        <v>0</v>
+      <c r="A18" t="str">
+        <f>special_keyvalue!A20</f>
+        <v>skv_dark</v>
       </c>
       <c r="C18" t="str">
-        <f>"|"""&amp;special_keyvalue!A19&amp;""""</f>
-        <v>|""</v>
+        <f>"|"""&amp;special_keyvalue!A20&amp;""""</f>
+        <v>|"skv_dark"</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
-        <f>special_keyvalue!A20</f>
-        <v>0</v>
-      </c>
-      <c r="C19" t="str">
-        <f>"|"""&amp;special_keyvalue!A20&amp;""""</f>
-        <v>|""</v>
+      <c r="A19" t="e">
+        <f>special_keyvalue!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C19" t="e">
+        <f>"|"""&amp;special_keyvalue!#REF!&amp;""""</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:3">

--- a/excels/config/game/special_keyvalue.xlsx
+++ b/excels/config/game/special_keyvalue.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>index  下标</t>
   </si>
@@ -42,13 +42,13 @@
     <t>基础值</t>
   </si>
   <si>
-    <t>百分比加成</t>
-  </si>
-  <si>
-    <t>乘算</t>
-  </si>
-  <si>
-    <t>修正</t>
+    <t>基础值百分比加成</t>
+  </si>
+  <si>
+    <t>独立乘区乘算</t>
+  </si>
+  <si>
+    <t>最终修正值</t>
   </si>
   <si>
     <t>key</t>
@@ -69,7 +69,7 @@
     <t>弹道型</t>
   </si>
   <si>
-    <t>弹道数量</t>
+    <t>【弹道型】技能数量额外+1</t>
   </si>
   <si>
     <t>Base 1</t>
@@ -84,16 +84,16 @@
     <t>Correct 4</t>
   </si>
   <si>
-    <t>skv_radius</t>
+    <t>skv_aoe_radius</t>
   </si>
   <si>
     <t>范围型</t>
   </si>
   <si>
-    <t>技能范围</t>
-  </si>
-  <si>
-    <t>skv_duration</t>
+    <t>【范围型】技能技能范围+20%</t>
+  </si>
+  <si>
+    <t>skv_dot_mass</t>
   </si>
   <si>
     <t>持续型收益</t>
@@ -102,7 +102,7 @@
     <t>【持续型】技能群体收益+10%</t>
   </si>
   <si>
-    <t>skv_growth</t>
+    <t>skv_buff_duration</t>
   </si>
   <si>
     <t>持续型时间</t>
@@ -111,16 +111,16 @@
     <t>【持续型】技能持续时间+1秒</t>
   </si>
   <si>
-    <t>skv_damage</t>
+    <t>skv_grow_income</t>
   </si>
   <si>
     <t>成长型效果</t>
   </si>
   <si>
-    <t>【成长型】技能成长效果%</t>
-  </si>
-  <si>
-    <t>skv_financing</t>
+    <t>【成长型】技能成长效果+20%</t>
+  </si>
+  <si>
+    <t>skv_dmg_percent</t>
   </si>
   <si>
     <t>技能伤害</t>
@@ -129,7 +129,7 @@
     <t>技能伤害+20%（针对所有可造成伤害的技能）</t>
   </si>
   <si>
-    <t>skv_defense</t>
+    <t>skv_resource_percent</t>
   </si>
   <si>
     <t>理财收益</t>
@@ -138,25 +138,34 @@
     <t>【理财型】技能收益效果+20%</t>
   </si>
   <si>
+    <t>skv_surround_interval</t>
+  </si>
+  <si>
+    <t>环绕伤害间隔</t>
+  </si>
+  <si>
+    <t>【环绕型】技能伤害间隔-0.1s</t>
+  </si>
+  <si>
+    <t>skv_surround_speed</t>
+  </si>
+  <si>
+    <t>环绕速度</t>
+  </si>
+  <si>
+    <t>【环绕型】环绕速度提高10%</t>
+  </si>
+  <si>
     <t>skv_summoned_duration</t>
   </si>
   <si>
-    <t>环绕伤害间隔</t>
-  </si>
-  <si>
-    <t>【环绕型】技能伤害间隔-0.1s</t>
-  </si>
-  <si>
-    <t>skv_income</t>
-  </si>
-  <si>
     <t>召唤物时间</t>
   </si>
   <si>
     <t>【召唤型】技能召唤物存在时间+1秒</t>
   </si>
   <si>
-    <t>skv_haste</t>
+    <t>skv_buff_percent</t>
   </si>
   <si>
     <t>增益收益</t>
@@ -165,7 +174,7 @@
     <t>【增益型】技能效果+20%</t>
   </si>
   <si>
-    <t>skv_fire</t>
+    <t>skv_manacost_reduce</t>
   </si>
   <si>
     <t>技能蓝耗降低</t>
@@ -174,7 +183,7 @@
     <t>技能蓝耗降低20%</t>
   </si>
   <si>
-    <t>skv_thunder</t>
+    <t>skv_ability_haste</t>
   </si>
   <si>
     <t>技能急速</t>
@@ -183,28 +192,31 @@
     <t>技能急速+10</t>
   </si>
   <si>
+    <t>skv_fire_increase</t>
+  </si>
+  <si>
     <t>火元素亲和</t>
   </si>
   <si>
-    <t>skv_ice</t>
+    <t>skv_ice_increase</t>
   </si>
   <si>
     <t>冰元素亲和</t>
   </si>
   <si>
-    <t>skv_wind</t>
+    <t>skv_wind_increase</t>
   </si>
   <si>
     <t>风元素亲和</t>
   </si>
   <si>
-    <t>skv_light</t>
+    <t>skv_light_increase</t>
   </si>
   <si>
     <t>光元素亲和</t>
   </si>
   <si>
-    <t>skv_dark</t>
+    <t>skv_dark_increase</t>
   </si>
   <si>
     <t>暗元素亲和</t>
@@ -1042,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1077,12 +1089,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1285,12 +1291,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0B368C03-0D7F-441F-A5A5-3514E8AD21EC}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0D40465E-B7F5-4B4D-BAA1-1D06C7923EB8}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{76356567-5829-4158-8E21-E228F76359C4}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{58722E84-F240-450C-9D80-5623850F63E9}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1553,10 +1559,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1566,7 +1572,7 @@
     <col min="3" max="3" width="40.675" customWidth="1"/>
     <col min="4" max="4" width="17.175" customWidth="1"/>
     <col min="5" max="5" width="10.5083333333333" customWidth="1"/>
-    <col min="6" max="6" width="14.175" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="13.3416666666667" customWidth="1"/>
     <col min="8" max="8" width="12.5083333333333" customWidth="1"/>
   </cols>
@@ -1594,7 +1600,7 @@
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
@@ -1619,7 +1625,7 @@
       <c r="H2" s="8">
         <v>4</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1630,7 +1636,7 @@
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="10"/>
@@ -1646,7 +1652,7 @@
       <c r="H3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="17"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
@@ -1655,7 +1661,7 @@
       <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="10"/>
@@ -1663,7 +1669,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:9">
       <c r="A5" s="9" t="s">
@@ -1672,7 +1678,7 @@
       <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="10"/>
@@ -1680,7 +1686,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="17"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:9">
       <c r="A6" s="9" t="s">
@@ -1689,7 +1695,7 @@
       <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="10"/>
@@ -1697,16 +1703,16 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="17"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="10"/>
@@ -1714,16 +1720,16 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="10"/>
@@ -1731,16 +1737,16 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:9">
       <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="10"/>
@@ -1748,16 +1754,16 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="10"/>
@@ -1765,7 +1771,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:9">
       <c r="A11" s="9" t="s">
@@ -1774,7 +1780,7 @@
       <c r="B11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="10"/>
@@ -1782,7 +1788,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:9">
       <c r="A12" s="9" t="s">
@@ -1791,7 +1797,7 @@
       <c r="B12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="10"/>
@@ -1799,7 +1805,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="17"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:9">
       <c r="A13" s="9" t="s">
@@ -1808,7 +1814,7 @@
       <c r="B13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="10"/>
@@ -1816,7 +1822,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:9">
       <c r="A14" s="9" t="s">
@@ -1825,7 +1831,7 @@
       <c r="B14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="10"/>
@@ -1833,44 +1839,45 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A15" s="13" t="s">
-        <v>45</v>
+      <c r="A15" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="10"/>
+        <v>55</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1878,14 +1885,14 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:9">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1893,14 +1900,14 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:8">
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:9">
       <c r="A19" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1908,20 +1915,35 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="11"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A20" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="A20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1959,170 +1981,170 @@
     <row r="3" spans="1:3">
       <c r="A3" t="str">
         <f>special_keyvalue!A4</f>
-        <v>skv_radius</v>
+        <v>skv_aoe_radius</v>
       </c>
       <c r="C3" t="str">
         <f>"|"""&amp;special_keyvalue!A4&amp;""""</f>
-        <v>|"skv_radius"</v>
+        <v>|"skv_aoe_radius"</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="str">
         <f>special_keyvalue!A5</f>
-        <v>skv_duration</v>
+        <v>skv_dot_mass</v>
       </c>
       <c r="C4" t="str">
         <f>"|"""&amp;special_keyvalue!A5&amp;""""</f>
-        <v>|"skv_duration"</v>
+        <v>|"skv_dot_mass"</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:4">
       <c r="A5" t="str">
         <f>special_keyvalue!A6</f>
-        <v>skv_growth</v>
+        <v>skv_buff_duration</v>
       </c>
       <c r="C5" t="str">
         <f>"|"""&amp;special_keyvalue!A6&amp;""""</f>
-        <v>|"skv_growth"</v>
+        <v>|"skv_buff_duration"</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" ht="16.5" spans="1:4">
       <c r="A6" t="str">
         <f>special_keyvalue!A7</f>
-        <v>skv_damage</v>
+        <v>skv_grow_income</v>
       </c>
       <c r="C6" t="str">
         <f>"|"""&amp;special_keyvalue!A7&amp;""""</f>
-        <v>|"skv_damage"</v>
+        <v>|"skv_grow_income"</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" ht="16.5" spans="1:4">
       <c r="A7" t="str">
         <f>special_keyvalue!A8</f>
-        <v>skv_financing</v>
+        <v>skv_dmg_percent</v>
       </c>
       <c r="C7" t="str">
         <f>"|"""&amp;special_keyvalue!A8&amp;""""</f>
-        <v>|"skv_financing"</v>
+        <v>|"skv_dmg_percent"</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" ht="16.5" spans="1:4">
       <c r="A8" t="str">
         <f>special_keyvalue!A9</f>
-        <v>skv_defense</v>
+        <v>skv_resource_percent</v>
       </c>
       <c r="C8" t="str">
         <f>"|"""&amp;special_keyvalue!A9&amp;""""</f>
-        <v>|"skv_defense"</v>
+        <v>|"skv_resource_percent"</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" ht="16.5" spans="1:4">
       <c r="A9" t="str">
         <f>special_keyvalue!A10</f>
-        <v>skv_summoned_duration</v>
+        <v>skv_surround_interval</v>
       </c>
       <c r="C9" t="str">
         <f>"|"""&amp;special_keyvalue!A10&amp;""""</f>
-        <v>|"skv_summoned_duration"</v>
+        <v>|"skv_surround_interval"</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" ht="16.5" spans="1:4">
       <c r="A10" t="str">
-        <f>special_keyvalue!A11</f>
-        <v>skv_income</v>
+        <f>special_keyvalue!A12</f>
+        <v>skv_summoned_duration</v>
       </c>
       <c r="C10" t="str">
-        <f>"|"""&amp;special_keyvalue!A11&amp;""""</f>
-        <v>|"skv_income"</v>
+        <f>"|"""&amp;special_keyvalue!A12&amp;""""</f>
+        <v>|"skv_summoned_duration"</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" ht="16.5" spans="1:4">
       <c r="A11" t="str">
-        <f>special_keyvalue!A12</f>
-        <v>skv_haste</v>
+        <f>special_keyvalue!A13</f>
+        <v>skv_buff_percent</v>
       </c>
       <c r="C11" t="str">
-        <f>"|"""&amp;special_keyvalue!A12&amp;""""</f>
-        <v>|"skv_haste"</v>
+        <f>"|"""&amp;special_keyvalue!A13&amp;""""</f>
+        <v>|"skv_buff_percent"</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" ht="16.5" spans="1:4">
       <c r="A12" t="str">
-        <f>special_keyvalue!A13</f>
-        <v>skv_fire</v>
+        <f>special_keyvalue!A14</f>
+        <v>skv_manacost_reduce</v>
       </c>
       <c r="C12" t="str">
-        <f>"|"""&amp;special_keyvalue!A13&amp;""""</f>
-        <v>|"skv_fire"</v>
+        <f>"|"""&amp;special_keyvalue!A14&amp;""""</f>
+        <v>|"skv_manacost_reduce"</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" ht="16.5" spans="1:4">
       <c r="A13" t="str">
-        <f>special_keyvalue!A14</f>
-        <v>skv_thunder</v>
+        <f>special_keyvalue!A15</f>
+        <v>skv_ability_haste</v>
       </c>
       <c r="C13" t="str">
-        <f>"|"""&amp;special_keyvalue!A14&amp;""""</f>
-        <v>|"skv_thunder"</v>
+        <f>"|"""&amp;special_keyvalue!A15&amp;""""</f>
+        <v>|"skv_ability_haste"</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="str">
-        <f>special_keyvalue!A16</f>
-        <v>skv_ice</v>
+        <f>special_keyvalue!A17</f>
+        <v>skv_ice_increase</v>
       </c>
       <c r="C14" t="str">
-        <f>"|"""&amp;special_keyvalue!A16&amp;""""</f>
-        <v>|"skv_ice"</v>
+        <f>"|"""&amp;special_keyvalue!A17&amp;""""</f>
+        <v>|"skv_ice_increase"</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="str">
-        <f>special_keyvalue!A17</f>
-        <v>skv_wind</v>
+        <f>special_keyvalue!A18</f>
+        <v>skv_wind_increase</v>
       </c>
       <c r="C15" t="str">
-        <f>"|"""&amp;special_keyvalue!A17&amp;""""</f>
-        <v>|"skv_wind"</v>
+        <f>"|"""&amp;special_keyvalue!A18&amp;""""</f>
+        <v>|"skv_wind_increase"</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="str">
-        <f>special_keyvalue!A18</f>
-        <v>skv_light</v>
+        <f>special_keyvalue!A19</f>
+        <v>skv_light_increase</v>
       </c>
       <c r="C16" t="str">
-        <f>"|"""&amp;special_keyvalue!A18&amp;""""</f>
-        <v>|"skv_light"</v>
+        <f>"|"""&amp;special_keyvalue!A19&amp;""""</f>
+        <v>|"skv_light_increase"</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="str">
-        <f>special_keyvalue!A19</f>
-        <v>skv_dark</v>
+        <f>special_keyvalue!A20</f>
+        <v>skv_dark_increase</v>
       </c>
       <c r="C17" t="str">
-        <f>"|"""&amp;special_keyvalue!A19&amp;""""</f>
-        <v>|"skv_dark"</v>
+        <f>"|"""&amp;special_keyvalue!A20&amp;""""</f>
+        <v>|"skv_dark_increase"</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="str">
-        <f>special_keyvalue!A20</f>
-        <v>skv_dark</v>
+        <f>special_keyvalue!A21</f>
+        <v>skv_dark_increase</v>
       </c>
       <c r="C18" t="str">
-        <f>"|"""&amp;special_keyvalue!A20&amp;""""</f>
-        <v>|"skv_dark"</v>
+        <f>"|"""&amp;special_keyvalue!A21&amp;""""</f>
+        <v>|"skv_dark_increase"</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2137,151 +2159,151 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <f>special_keyvalue!A21</f>
+        <f>special_keyvalue!A22</f>
         <v>0</v>
       </c>
       <c r="C20" t="str">
-        <f>"|"""&amp;special_keyvalue!A21&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A22&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <f>special_keyvalue!A22</f>
+        <f>special_keyvalue!A23</f>
         <v>0</v>
       </c>
       <c r="C21" t="str">
-        <f>"|"""&amp;special_keyvalue!A22&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A23&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <f>special_keyvalue!A23</f>
+        <f>special_keyvalue!A24</f>
         <v>0</v>
       </c>
       <c r="C22" t="str">
-        <f>"|"""&amp;special_keyvalue!A23&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A24&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <f>special_keyvalue!A24</f>
+        <f>special_keyvalue!A25</f>
         <v>0</v>
       </c>
       <c r="C23" t="str">
-        <f>"|"""&amp;special_keyvalue!A24&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A25&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <f>special_keyvalue!A25</f>
+        <f>special_keyvalue!A26</f>
         <v>0</v>
       </c>
       <c r="C24" t="str">
-        <f>"|"""&amp;special_keyvalue!A25&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A26&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <f>special_keyvalue!A26</f>
+        <f>special_keyvalue!A27</f>
         <v>0</v>
       </c>
       <c r="C25" t="str">
-        <f>"|"""&amp;special_keyvalue!A26&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A27&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <f>special_keyvalue!A27</f>
+        <f>special_keyvalue!A28</f>
         <v>0</v>
       </c>
       <c r="C26" t="str">
-        <f>"|"""&amp;special_keyvalue!A27&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A28&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <f>special_keyvalue!A28</f>
+        <f>special_keyvalue!A29</f>
         <v>0</v>
       </c>
       <c r="C27" t="str">
-        <f>"|"""&amp;special_keyvalue!A28&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A29&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <f>special_keyvalue!A29</f>
+        <f>special_keyvalue!A30</f>
         <v>0</v>
       </c>
       <c r="C28" t="str">
-        <f>"|"""&amp;special_keyvalue!A29&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A30&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <f>special_keyvalue!A30</f>
+        <f>special_keyvalue!A31</f>
         <v>0</v>
       </c>
       <c r="C29" t="str">
-        <f>"|"""&amp;special_keyvalue!A30&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A31&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <f>special_keyvalue!A31</f>
+        <f>special_keyvalue!A32</f>
         <v>0</v>
       </c>
       <c r="C30" t="str">
-        <f>"|"""&amp;special_keyvalue!A31&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A32&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <f>special_keyvalue!A32</f>
+        <f>special_keyvalue!A33</f>
         <v>0</v>
       </c>
       <c r="C31" t="str">
-        <f>"|"""&amp;special_keyvalue!A32&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A33&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <f>special_keyvalue!A33</f>
+        <f>special_keyvalue!A34</f>
         <v>0</v>
       </c>
       <c r="C32" t="str">
-        <f>"|"""&amp;special_keyvalue!A33&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A34&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <f>special_keyvalue!A34</f>
+        <f>special_keyvalue!A35</f>
         <v>0</v>
       </c>
       <c r="C33" t="str">
-        <f>"|"""&amp;special_keyvalue!A34&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A35&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <f>special_keyvalue!A35</f>
+        <f>special_keyvalue!A36</f>
         <v>0</v>
       </c>
       <c r="C34" t="str">
-        <f>"|"""&amp;special_keyvalue!A35&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A36&amp;""""</f>
         <v>|""</v>
       </c>
     </row>

--- a/excels/config/game/special_keyvalue.xlsx
+++ b/excels/config/game/special_keyvalue.xlsx
@@ -9,7 +9,11 @@
   <sheets>
     <sheet name="special_keyvalue" sheetId="1" r:id="rId1"/>
     <sheet name="__Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="__Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">special_keyvalue!$B$1:$B$34</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
   <si>
     <t>index  下标</t>
   </si>
@@ -36,6 +40,9 @@
     <t>中文名字</t>
   </si>
   <si>
+    <t>词条类型</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -57,6 +64,9 @@
     <t>#Loccustom_special_key_{}</t>
   </si>
   <si>
+    <t>InCategory</t>
+  </si>
+  <si>
     <t>AbilityValues[{]</t>
   </si>
   <si>
@@ -69,7 +79,7 @@
     <t>弹道型</t>
   </si>
   <si>
-    <t>【弹道型】技能数量额外+1</t>
+    <t>弹道数量,影响弹道型技能的KV值</t>
   </si>
   <si>
     <t>Base 1</t>
@@ -84,142 +94,199 @@
     <t>Correct 4</t>
   </si>
   <si>
+    <t>skv_missile_speed</t>
+  </si>
+  <si>
+    <t>弹道速度</t>
+  </si>
+  <si>
     <t>skv_aoe_radius</t>
   </si>
   <si>
     <t>范围型</t>
   </si>
   <si>
-    <t>【范围型】技能技能范围+20%</t>
-  </si>
-  <si>
-    <t>skv_dot_mass</t>
-  </si>
-  <si>
-    <t>持续型收益</t>
-  </si>
-  <si>
-    <t>【持续型】技能群体收益+10%</t>
-  </si>
-  <si>
-    <t>skv_buff_duration</t>
-  </si>
-  <si>
-    <t>持续型时间</t>
-  </si>
-  <si>
-    <t>【持续型】技能持续时间+1秒</t>
+    <t>范围型范围</t>
+  </si>
+  <si>
+    <t>skv_aoe_set1</t>
+  </si>
+  <si>
+    <t>未定义</t>
+  </si>
+  <si>
+    <t>skv_dot_duration</t>
+  </si>
+  <si>
+    <t>持续型</t>
+  </si>
+  <si>
+    <t>持续时间%</t>
+  </si>
+  <si>
+    <t>skv_dot_interval</t>
+  </si>
+  <si>
+    <t>持续周期%</t>
   </si>
   <si>
     <t>skv_grow_income</t>
   </si>
   <si>
-    <t>成长型效果</t>
-  </si>
-  <si>
-    <t>【成长型】技能成长效果+20%</t>
-  </si>
-  <si>
-    <t>skv_dmg_percent</t>
-  </si>
-  <si>
-    <t>技能伤害</t>
-  </si>
-  <si>
-    <t>技能伤害+20%（针对所有可造成伤害的技能）</t>
+    <t>成长型</t>
+  </si>
+  <si>
+    <t>成长加成%</t>
+  </si>
+  <si>
+    <t>skv_surround_speed</t>
+  </si>
+  <si>
+    <t>环绕型</t>
+  </si>
+  <si>
+    <t>环绕速度</t>
+  </si>
+  <si>
+    <t>skv_surround_duration</t>
+  </si>
+  <si>
+    <t>环绕物持续时间</t>
+  </si>
+  <si>
+    <t>skv_surround_count</t>
+  </si>
+  <si>
+    <t>环绕物个数</t>
+  </si>
+  <si>
+    <t>skv_ring_width</t>
+  </si>
+  <si>
+    <t>线圈型</t>
+  </si>
+  <si>
+    <t>线圈宽度</t>
+  </si>
+  <si>
+    <t>skv_ring_interval</t>
+  </si>
+  <si>
+    <t>线圈伤害周期%</t>
+  </si>
+  <si>
+    <t>skv_bounce_count</t>
+  </si>
+  <si>
+    <t>弹射型</t>
+  </si>
+  <si>
+    <t>弹射次数</t>
+  </si>
+  <si>
+    <t>skv_bounce_increase</t>
+  </si>
+  <si>
+    <t>弹射增伤</t>
+  </si>
+  <si>
+    <t>skv_target_count</t>
+  </si>
+  <si>
+    <t>目标型</t>
+  </si>
+  <si>
+    <t>初始目标个数</t>
   </si>
   <si>
     <t>skv_resource_percent</t>
   </si>
   <si>
+    <t>理财型</t>
+  </si>
+  <si>
     <t>理财收益</t>
   </si>
   <si>
-    <t>【理财型】技能收益效果+20%</t>
-  </si>
-  <si>
-    <t>skv_surround_interval</t>
-  </si>
-  <si>
-    <t>环绕伤害间隔</t>
-  </si>
-  <si>
-    <t>【环绕型】技能伤害间隔-0.1s</t>
-  </si>
-  <si>
-    <t>skv_surround_speed</t>
-  </si>
-  <si>
-    <t>环绕速度</t>
-  </si>
-  <si>
-    <t>【环绕型】环绕速度提高10%</t>
-  </si>
-  <si>
-    <t>skv_summoned_duration</t>
-  </si>
-  <si>
-    <t>召唤物时间</t>
-  </si>
-  <si>
-    <t>【召唤型】技能召唤物存在时间+1秒</t>
-  </si>
-  <si>
-    <t>skv_buff_percent</t>
-  </si>
-  <si>
-    <t>增益收益</t>
-  </si>
-  <si>
-    <t>【增益型】技能效果+20%</t>
-  </si>
-  <si>
-    <t>skv_manacost_reduce</t>
-  </si>
-  <si>
-    <t>技能蓝耗降低</t>
-  </si>
-  <si>
-    <t>技能蓝耗降低20%</t>
-  </si>
-  <si>
-    <t>skv_ability_haste</t>
-  </si>
-  <si>
-    <t>技能急速</t>
-  </si>
-  <si>
-    <t>技能急速+10</t>
-  </si>
-  <si>
-    <t>skv_fire_increase</t>
-  </si>
-  <si>
-    <t>火元素亲和</t>
-  </si>
-  <si>
-    <t>skv_ice_increase</t>
-  </si>
-  <si>
-    <t>冰元素亲和</t>
-  </si>
-  <si>
-    <t>skv_wind_increase</t>
-  </si>
-  <si>
-    <t>风元素亲和</t>
-  </si>
-  <si>
-    <t>skv_light_increase</t>
-  </si>
-  <si>
-    <t>光元素亲和</t>
-  </si>
-  <si>
-    <t>skv_dark_increase</t>
-  </si>
-  <si>
-    <t>暗元素亲和</t>
+    <t>skv_buff_increase</t>
+  </si>
+  <si>
+    <t>增益型</t>
+  </si>
+  <si>
+    <t>增益效率</t>
+  </si>
+  <si>
+    <t>skv_orb_chance</t>
+  </si>
+  <si>
+    <t>法球型</t>
+  </si>
+  <si>
+    <t>法球概率</t>
+  </si>
+  <si>
+    <t>skv_orb_count</t>
+  </si>
+  <si>
+    <t>法球次数</t>
+  </si>
+  <si>
+    <t>skv_summon_duration</t>
+  </si>
+  <si>
+    <t>召唤型</t>
+  </si>
+  <si>
+    <t>召唤时间</t>
+  </si>
+  <si>
+    <t>skv_summon_strength</t>
+  </si>
+  <si>
+    <t>召唤物强度</t>
+  </si>
+  <si>
+    <t>Aoe</t>
+  </si>
+  <si>
+    <t>Missile</t>
+  </si>
+  <si>
+    <t>Surround</t>
+  </si>
+  <si>
+    <t>Dot</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Summon</t>
+  </si>
+  <si>
+    <t>Grow</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>Bounce</t>
+  </si>
+  <si>
+    <t>Targe</t>
   </si>
 </sst>
 </file>
@@ -232,13 +299,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -249,7 +322,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -398,7 +471,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,7 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FF5A5A5A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3BCDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -639,13 +718,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color rgb="FF595959"/>
       </left>
       <right style="medium">
         <color theme="0"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color rgb="FF595959"/>
       </top>
       <bottom/>
@@ -658,23 +737,62 @@
       <right style="medium">
         <color theme="0"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color rgb="FF595959"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
+      <left style="thick">
+        <color rgb="FF595959"/>
       </left>
       <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color rgb="FF595959"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color rgb="FF595959"/>
-      </top>
-      <bottom/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -696,19 +814,6 @@
       </left>
       <right style="thin">
         <color rgb="FFEBEBEB"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF5A5A5A"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -747,62 +852,67 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF5A5A5A"/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF5A5A5A"/>
+        <color theme="0"/>
       </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
       </right>
       <top style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FF5A5A5A"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF5A5A5A"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
+      <right style="thick">
+        <color rgb="FF595959"/>
       </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,55 +1034,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,121 +1094,148 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1155,7 +1289,14 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1291,14 +1432,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0D40465E-B7F5-4B4D-BAA1-1D06C7923EB8}">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B9068C0C-E8CF-4BD3-9AD5-E1A0EB940899}">
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{58722E84-F240-450C-9D80-5623850F63E9}">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C7A020A6-65DD-40B6-8899-B7526EAF6F65}">
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1559,393 +1700,663 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.5083333333333" customWidth="1"/>
+    <col min="1" max="1" width="24.8416666666667" customWidth="1"/>
     <col min="2" max="2" width="25.8416666666667" customWidth="1"/>
-    <col min="3" max="3" width="40.675" customWidth="1"/>
-    <col min="4" max="4" width="17.175" customWidth="1"/>
-    <col min="5" max="5" width="10.5083333333333" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="13.3416666666667" customWidth="1"/>
-    <col min="8" max="8" width="12.5083333333333" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="25.8416666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.675" customWidth="1"/>
+    <col min="6" max="6" width="17.175" customWidth="1"/>
+    <col min="7" max="7" width="10.5083333333333" customWidth="1"/>
+    <col min="8" max="8" width="21.675" customWidth="1"/>
+    <col min="9" max="9" width="16.0083333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.175" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="H2" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="I2" s="5">
         <v>3</v>
       </c>
-      <c r="H2" s="8">
+      <c r="J2" s="21">
         <v>4</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:9">
+      <c r="K2" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="33" spans="1:13">
       <c r="A3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>VLOOKUP(C3,__Sheet3!A:B,2,FALSE)</f>
+        <v>Missile</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="J3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="K3" s="20"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:9">
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>VLOOKUP(C4,__Sheet3!A:B,2,FALSE)</f>
+        <v>Missile</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="20"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:13">
       <c r="A5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:9">
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>VLOOKUP(C5,__Sheet3!A:B,2,FALSE)</f>
+        <v>Aoe</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="20"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:13">
       <c r="A6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>VLOOKUP(C6,__Sheet3!A:B,2,FALSE)</f>
+        <v>Aoe</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A7" s="9" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="20"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>VLOOKUP(C7,__Sheet3!A:B,2,FALSE)</f>
+        <v>Dot</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:9">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="20"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:13">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f>VLOOKUP(C8,__Sheet3!A:B,2,FALSE)</f>
+        <v>Dot</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="20"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f>VLOOKUP(C9,__Sheet3!A:B,2,FALSE)</f>
+        <v>Grow</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="20"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f>VLOOKUP(C10,__Sheet3!A:B,2,FALSE)</f>
+        <v>Surround</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>VLOOKUP(C11,__Sheet3!A:B,2,FALSE)</f>
+        <v>Surround</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f>VLOOKUP(C12,__Sheet3!A:B,2,FALSE)</f>
+        <v>Surround</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A12" s="9" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f>VLOOKUP(C13,__Sheet3!A:B,2,FALSE)</f>
+        <v>Ring</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A13" s="9" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f>VLOOKUP(C14,__Sheet3!A:B,2,FALSE)</f>
+        <v>Ring</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="20"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A14" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>VLOOKUP(C15,__Sheet3!A:B,2,FALSE)</f>
+        <v>Bounce</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A15" s="9" t="s">
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f>VLOOKUP(C16,__Sheet3!A:B,2,FALSE)</f>
+        <v>Bounce</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A16" s="9" t="s">
+      <c r="C17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f>VLOOKUP(C17,__Sheet3!A:B,2,FALSE)</f>
+        <v>Targe</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A17" s="9" t="s">
+      <c r="B18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f>VLOOKUP(C18,__Sheet3!A:B,2,FALSE)</f>
+        <v>Resource</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A18" s="9" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A19" s="9" t="s">
+      <c r="C19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f>VLOOKUP(C19,__Sheet3!A:B,2,FALSE)</f>
+        <v>Buff</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f>VLOOKUP(C20,__Sheet3!A:B,2,FALSE)</f>
+        <v>Orb</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A21" s="12" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
+      <c r="C21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f>VLOOKUP(C21,__Sheet3!A:B,2,FALSE)</f>
+        <v>Orb</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>VLOOKUP(C22,__Sheet3!A:B,2,FALSE)</f>
+        <v>Summon</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f>VLOOKUP(C23,__Sheet3!A:B,2,FALSE)</f>
+        <v>Summon</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" ht="17.25" spans="1:5">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:5">
+      <c r="A25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:5">
+      <c r="A26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:5">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:5">
+      <c r="A28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:5">
+      <c r="A29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="32" ht="16.5" spans="2:4">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B34">
+    <extLst/>
+  </autoFilter>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:D32">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1958,7 +2369,7 @@
   <dimension ref="A2:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C25"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1981,199 +2392,199 @@
     <row r="3" spans="1:3">
       <c r="A3" t="str">
         <f>special_keyvalue!A4</f>
-        <v>skv_aoe_radius</v>
+        <v>skv_missile_speed</v>
       </c>
       <c r="C3" t="str">
-        <f>"|"""&amp;special_keyvalue!A4&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A5&amp;""""</f>
         <v>|"skv_aoe_radius"</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="str">
         <f>special_keyvalue!A5</f>
-        <v>skv_dot_mass</v>
+        <v>skv_aoe_radius</v>
       </c>
       <c r="C4" t="str">
-        <f>"|"""&amp;special_keyvalue!A5&amp;""""</f>
-        <v>|"skv_dot_mass"</v>
+        <f>"|"""&amp;special_keyvalue!A7&amp;""""</f>
+        <v>|"skv_dot_duration"</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:4">
       <c r="A5" t="str">
-        <f>special_keyvalue!A6</f>
-        <v>skv_buff_duration</v>
+        <f>special_keyvalue!A7</f>
+        <v>skv_dot_duration</v>
       </c>
       <c r="C5" t="str">
-        <f>"|"""&amp;special_keyvalue!A6&amp;""""</f>
-        <v>|"skv_buff_duration"</v>
-      </c>
-      <c r="D5" s="1"/>
+        <f>"|"""&amp;special_keyvalue!A8&amp;""""</f>
+        <v>|"skv_dot_interval"</v>
+      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" ht="16.5" spans="1:4">
       <c r="A6" t="str">
-        <f>special_keyvalue!A7</f>
-        <v>skv_grow_income</v>
+        <f>special_keyvalue!A8</f>
+        <v>skv_dot_interval</v>
       </c>
       <c r="C6" t="str">
-        <f>"|"""&amp;special_keyvalue!A7&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A9&amp;""""</f>
         <v>|"skv_grow_income"</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" ht="16.5" spans="1:4">
       <c r="A7" t="str">
-        <f>special_keyvalue!A8</f>
-        <v>skv_dmg_percent</v>
+        <f>special_keyvalue!A9</f>
+        <v>skv_grow_income</v>
       </c>
       <c r="C7" t="str">
-        <f>"|"""&amp;special_keyvalue!A8&amp;""""</f>
-        <v>|"skv_dmg_percent"</v>
-      </c>
-      <c r="D7" s="1"/>
+        <f>"|"""&amp;special_keyvalue!A10&amp;""""</f>
+        <v>|"skv_surround_speed"</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" ht="16.5" spans="1:4">
       <c r="A8" t="str">
-        <f>special_keyvalue!A9</f>
-        <v>skv_resource_percent</v>
+        <f>special_keyvalue!A10</f>
+        <v>skv_surround_speed</v>
       </c>
       <c r="C8" t="str">
-        <f>"|"""&amp;special_keyvalue!A9&amp;""""</f>
-        <v>|"skv_resource_percent"</v>
-      </c>
-      <c r="D8" s="2"/>
+        <f>"|"""&amp;special_keyvalue!A11&amp;""""</f>
+        <v>|"skv_surround_duration"</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" ht="16.5" spans="1:4">
       <c r="A9" t="str">
-        <f>special_keyvalue!A10</f>
-        <v>skv_surround_interval</v>
+        <f>special_keyvalue!A11</f>
+        <v>skv_surround_duration</v>
       </c>
       <c r="C9" t="str">
-        <f>"|"""&amp;special_keyvalue!A10&amp;""""</f>
-        <v>|"skv_surround_interval"</v>
-      </c>
-      <c r="D9" s="1"/>
+        <f>"|"""&amp;special_keyvalue!A12&amp;""""</f>
+        <v>|"skv_surround_count"</v>
+      </c>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" ht="16.5" spans="1:4">
       <c r="A10" t="str">
         <f>special_keyvalue!A12</f>
-        <v>skv_summoned_duration</v>
+        <v>skv_surround_count</v>
       </c>
       <c r="C10" t="str">
-        <f>"|"""&amp;special_keyvalue!A12&amp;""""</f>
-        <v>|"skv_summoned_duration"</v>
-      </c>
-      <c r="D10" s="2"/>
+        <f>"|"""&amp;special_keyvalue!A13&amp;""""</f>
+        <v>|"skv_ring_width"</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" ht="16.5" spans="1:4">
       <c r="A11" t="str">
         <f>special_keyvalue!A13</f>
-        <v>skv_buff_percent</v>
+        <v>skv_ring_width</v>
       </c>
       <c r="C11" t="str">
-        <f>"|"""&amp;special_keyvalue!A13&amp;""""</f>
-        <v>|"skv_buff_percent"</v>
-      </c>
-      <c r="D11" s="1"/>
+        <f>"|"""&amp;special_keyvalue!A14&amp;""""</f>
+        <v>|"skv_ring_interval"</v>
+      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" ht="16.5" spans="1:4">
       <c r="A12" t="str">
         <f>special_keyvalue!A14</f>
-        <v>skv_manacost_reduce</v>
+        <v>skv_ring_interval</v>
       </c>
       <c r="C12" t="str">
-        <f>"|"""&amp;special_keyvalue!A14&amp;""""</f>
-        <v>|"skv_manacost_reduce"</v>
-      </c>
-      <c r="D12" s="2"/>
+        <f>"|"""&amp;special_keyvalue!A15&amp;""""</f>
+        <v>|"skv_bounce_count"</v>
+      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" ht="16.5" spans="1:4">
       <c r="A13" t="str">
         <f>special_keyvalue!A15</f>
-        <v>skv_ability_haste</v>
+        <v>skv_bounce_count</v>
       </c>
       <c r="C13" t="str">
-        <f>"|"""&amp;special_keyvalue!A15&amp;""""</f>
-        <v>|"skv_ability_haste"</v>
-      </c>
-      <c r="D13" s="1"/>
+        <f>"|"""&amp;special_keyvalue!A16&amp;""""</f>
+        <v>|"skv_bounce_increase"</v>
+      </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="str">
-        <f>special_keyvalue!A17</f>
-        <v>skv_ice_increase</v>
+        <f>special_keyvalue!A16</f>
+        <v>skv_bounce_increase</v>
       </c>
       <c r="C14" t="str">
         <f>"|"""&amp;special_keyvalue!A17&amp;""""</f>
-        <v>|"skv_ice_increase"</v>
+        <v>|"skv_target_count"</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="str">
-        <f>special_keyvalue!A18</f>
-        <v>skv_wind_increase</v>
+        <f>special_keyvalue!A17</f>
+        <v>skv_target_count</v>
       </c>
       <c r="C15" t="str">
         <f>"|"""&amp;special_keyvalue!A18&amp;""""</f>
-        <v>|"skv_wind_increase"</v>
+        <v>|"skv_resource_percent"</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="str">
-        <f>special_keyvalue!A19</f>
-        <v>skv_light_increase</v>
+        <f>special_keyvalue!A18</f>
+        <v>skv_resource_percent</v>
       </c>
       <c r="C16" t="str">
         <f>"|"""&amp;special_keyvalue!A19&amp;""""</f>
-        <v>|"skv_light_increase"</v>
+        <v>|"skv_buff_increase"</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="str">
-        <f>special_keyvalue!A20</f>
-        <v>skv_dark_increase</v>
+        <f>special_keyvalue!A19</f>
+        <v>skv_buff_increase</v>
       </c>
       <c r="C17" t="str">
         <f>"|"""&amp;special_keyvalue!A20&amp;""""</f>
-        <v>|"skv_dark_increase"</v>
+        <v>|"skv_orb_chance"</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="str">
-        <f>special_keyvalue!A21</f>
-        <v>skv_dark_increase</v>
+        <f>special_keyvalue!A20</f>
+        <v>skv_orb_chance</v>
       </c>
       <c r="C18" t="str">
         <f>"|"""&amp;special_keyvalue!A21&amp;""""</f>
-        <v>|"skv_dark_increase"</v>
+        <v>|"skv_orb_count"</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="e">
-        <f>special_keyvalue!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C19" t="e">
-        <f>"|"""&amp;special_keyvalue!#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A19" t="str">
+        <f>special_keyvalue!A21</f>
+        <v>skv_orb_count</v>
+      </c>
+      <c r="C19" t="str">
+        <f>"|"""&amp;special_keyvalue!A22&amp;""""</f>
+        <v>|"skv_summon_duration"</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
+      <c r="A20" t="str">
         <f>special_keyvalue!A22</f>
-        <v>0</v>
+        <v>skv_summon_duration</v>
       </c>
       <c r="C20" t="str">
-        <f>"|"""&amp;special_keyvalue!A22&amp;""""</f>
-        <v>|""</v>
+        <f>"|"""&amp;special_keyvalue!A23&amp;""""</f>
+        <v>|"skv_summon_strength"</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="A21" t="str">
         <f>special_keyvalue!A23</f>
-        <v>0</v>
+        <v>skv_summon_strength</v>
       </c>
       <c r="C21" t="str">
-        <f>"|"""&amp;special_keyvalue!A23&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A24&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -2183,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="str">
-        <f>"|"""&amp;special_keyvalue!A24&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A25&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -2193,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="str">
-        <f>"|"""&amp;special_keyvalue!A25&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A26&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -2203,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="str">
-        <f>"|"""&amp;special_keyvalue!A26&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A27&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -2213,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="str">
-        <f>"|"""&amp;special_keyvalue!A27&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A28&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -2223,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="str">
-        <f>"|"""&amp;special_keyvalue!A28&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A29&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -2233,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="str">
-        <f>"|"""&amp;special_keyvalue!A29&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A30&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -2243,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="str">
-        <f>"|"""&amp;special_keyvalue!A30&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A31&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -2253,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="str">
-        <f>"|"""&amp;special_keyvalue!A31&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A32&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -2263,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="str">
-        <f>"|"""&amp;special_keyvalue!A32&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A33&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -2273,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="str">
-        <f>"|"""&amp;special_keyvalue!A33&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A34&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -2283,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="str">
-        <f>"|"""&amp;special_keyvalue!A34&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A35&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -2293,17 +2704,17 @@
         <v>0</v>
       </c>
       <c r="C33" t="str">
-        <f>"|"""&amp;special_keyvalue!A35&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A32&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <f>special_keyvalue!A36</f>
+        <f>special_keyvalue!A33</f>
         <v>0</v>
       </c>
       <c r="C34" t="str">
-        <f>"|"""&amp;special_keyvalue!A36&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A33&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -2311,4 +2722,135 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excels/config/game/special_keyvalue.xlsx
+++ b/excels/config/game/special_keyvalue.xlsx
@@ -12,7 +12,7 @@
     <sheet name="__Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">special_keyvalue!$B$1:$B$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">special_keyvalue!$B$1:$B$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
   <si>
     <t>index  下标</t>
   </si>
@@ -130,13 +130,13 @@
     <t>持续周期%</t>
   </si>
   <si>
-    <t>skv_grow_income</t>
+    <t>skv_grow_value</t>
   </si>
   <si>
     <t>成长型</t>
   </si>
   <si>
-    <t>成长加成%</t>
+    <t>成长值</t>
   </si>
   <si>
     <t>skv_surround_speed</t>
@@ -154,12 +154,18 @@
     <t>环绕物持续时间</t>
   </si>
   <si>
-    <t>skv_surround_count</t>
+    <t>skv_surround_limit</t>
   </si>
   <si>
     <t>环绕物个数</t>
   </si>
   <si>
+    <t>skv_surround_distance</t>
+  </si>
+  <si>
+    <t>环绕距离</t>
+  </si>
+  <si>
     <t>skv_ring_width</t>
   </si>
   <si>
@@ -172,7 +178,22 @@
     <t>skv_ring_interval</t>
   </si>
   <si>
-    <t>线圈伤害周期%</t>
+    <t>线圈判定周期%</t>
+  </si>
+  <si>
+    <t>skv_ring_range</t>
+  </si>
+  <si>
+    <t>线圈范围%</t>
+  </si>
+  <si>
+    <t>线圈判定宽度</t>
+  </si>
+  <si>
+    <t>skv_ring_dmg</t>
+  </si>
+  <si>
+    <t>线圈伤害</t>
   </si>
   <si>
     <t>skv_bounce_count</t>
@@ -196,10 +217,10 @@
     <t>目标型</t>
   </si>
   <si>
-    <t>初始目标个数</t>
-  </si>
-  <si>
-    <t>skv_resource_percent</t>
+    <t>目标个数</t>
+  </si>
+  <si>
+    <t>skv_resource_income</t>
   </si>
   <si>
     <t>理财型</t>
@@ -239,6 +260,12 @@
   </si>
   <si>
     <t>召唤时间</t>
+  </si>
+  <si>
+    <t>skv_summon_dmg</t>
+  </si>
+  <si>
+    <t>召唤物伤害乘区</t>
   </si>
   <si>
     <t>skv_summon_strength</t>
@@ -683,7 +710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -767,6 +794,15 @@
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -904,6 +940,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -1040,7 +1085,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,34 +1097,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1164,7 +1209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1198,43 +1243,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1432,12 +1486,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B9068C0C-E8CF-4BD3-9AD5-E1A0EB940899}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{DAEAC354-981A-4854-A1A1-5BEA181135E7}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C7A020A6-65DD-40B6-8899-B7526EAF6F65}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DA1545F4-1DCD-464A-A17D-969EC2AD2773}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
@@ -1700,10 +1754,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1744,10 +1798,10 @@
       <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="20"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:11">
       <c r="A2" s="8" t="s">
@@ -1773,10 +1827,10 @@
       <c r="I2" s="5">
         <v>3</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="23">
         <v>4</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1807,11 +1861,11 @@
       <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="M3" s="13"/>
+      <c r="K3" s="22"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:13">
       <c r="A4" s="8" t="s">
@@ -1834,9 +1888,9 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="20"/>
-      <c r="M4" s="13"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="22"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:13">
       <c r="A5" s="9" t="s">
@@ -1859,9 +1913,9 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="20"/>
-      <c r="M5" s="13"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="22"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:13">
       <c r="A6" s="9" t="s">
@@ -1884,9 +1938,9 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="20"/>
-      <c r="M6" s="13"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="22"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:13">
       <c r="A7" s="8" t="s">
@@ -1909,9 +1963,9 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="20"/>
-      <c r="M7" s="13"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="22"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:13">
       <c r="A8" s="9" t="s">
@@ -1934,9 +1988,9 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="20"/>
-      <c r="M8" s="13"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="22"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:13">
       <c r="A9" s="8" t="s">
@@ -1959,9 +2013,9 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="20"/>
-      <c r="M9" s="13"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="22"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:13">
       <c r="A10" s="9" t="s">
@@ -1984,9 +2038,9 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="20"/>
-      <c r="M10" s="13"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="22"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:13">
       <c r="A11" s="8" t="s">
@@ -2009,9 +2063,9 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="20"/>
-      <c r="M11" s="13"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="22"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:11">
       <c r="A12" s="9" t="s">
@@ -2034,326 +2088,448 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="20"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>43</v>
+      <c r="B13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D13" s="4" t="str">
         <f>VLOOKUP(C13,__Sheet3!A:B,2,FALSE)</f>
-        <v>Ring</v>
-      </c>
-      <c r="E13" s="5" t="s">
+        <v>Surround</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D14" s="4" t="str">
         <f>VLOOKUP(C14,__Sheet3!A:B,2,FALSE)</f>
         <v>Ring</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="20"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A15" s="8" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>48</v>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D15" s="4" t="str">
         <f>VLOOKUP(C15,__Sheet3!A:B,2,FALSE)</f>
-        <v>Bounce</v>
-      </c>
-      <c r="E15" s="5" t="s">
+        <v>Ring</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="22"/>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A16" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="4" t="str">
         <f>VLOOKUP(C16,__Sheet3!A:B,2,FALSE)</f>
-        <v>Bounce</v>
+        <v>Ring</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>53</v>
+      <c r="J16" s="24"/>
+      <c r="K16" s="22"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D17" s="4" t="str">
         <f>VLOOKUP(C17,__Sheet3!A:B,2,FALSE)</f>
-        <v>Targe</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:10">
+        <v>Ring</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="22"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:13">
       <c r="A18" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D18" s="4" t="str">
         <f>VLOOKUP(C18,__Sheet3!A:B,2,FALSE)</f>
-        <v>Resource</v>
+        <v>Ring</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:10">
+      <c r="J18" s="24"/>
+      <c r="K18" s="22"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:11">
       <c r="A19" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4" t="str">
         <f>VLOOKUP(C19,__Sheet3!A:B,2,FALSE)</f>
-        <v>Buff</v>
+        <v>Bounce</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:10">
+      <c r="J19" s="23"/>
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:11">
       <c r="A20" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D20" s="4" t="str">
         <f>VLOOKUP(C20,__Sheet3!A:B,2,FALSE)</f>
-        <v>Orb</v>
+        <v>Bounce</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:10">
+      <c r="J20" s="24"/>
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:11">
       <c r="A21" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4" t="str">
         <f>VLOOKUP(C21,__Sheet3!A:B,2,FALSE)</f>
-        <v>Orb</v>
+        <v>Targe</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="21"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:10">
       <c r="A22" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D22" s="4" t="str">
         <f>VLOOKUP(C22,__Sheet3!A:B,2,FALSE)</f>
-        <v>Summon</v>
+        <v>Resource</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="22"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A23" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>67</v>
+      <c r="A23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D23" s="4" t="str">
         <f>VLOOKUP(C23,__Sheet3!A:B,2,FALSE)</f>
+        <v>Buff</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f>VLOOKUP(C24,__Sheet3!A:B,2,FALSE)</f>
+        <v>Orb</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f>VLOOKUP(C25,__Sheet3!A:B,2,FALSE)</f>
+        <v>Orb</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f>VLOOKUP(C26,__Sheet3!A:B,2,FALSE)</f>
         <v>Summon</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" ht="17.25" spans="1:5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:5">
-      <c r="A25" s="15"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:5">
-      <c r="A26" s="15"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:5">
-      <c r="A27" s="15"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:5">
-      <c r="A28" s="15"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:5">
-      <c r="A29" s="15"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="E26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f>VLOOKUP(C27,__Sheet3!A:B,2,FALSE)</f>
+        <v>Summon</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f>VLOOKUP(C28,__Sheet3!A:B,2,FALSE)</f>
+        <v>Summon</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" ht="17.25" spans="1:5">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="32" ht="16.5" spans="2:4">
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+    <row r="30" ht="16.5" spans="1:5">
+      <c r="A30" s="17"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:5">
+      <c r="A31" s="17"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" ht="16.5" spans="1:5">
+      <c r="A32" s="17"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" ht="16.5" spans="1:5">
+      <c r="A33" s="17"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" ht="16.5" spans="1:5">
+      <c r="A34" s="17"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="37" ht="16.5" spans="2:4">
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B34">
+  <autoFilter ref="B1:B39">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="B37:D37">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:D32">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="M15:M18">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2427,14 +2603,14 @@
       </c>
       <c r="C6" t="str">
         <f>"|"""&amp;special_keyvalue!A9&amp;""""</f>
-        <v>|"skv_grow_income"</v>
+        <v>|"skv_grow_value"</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" ht="16.5" spans="1:4">
       <c r="A7" t="str">
         <f>special_keyvalue!A9</f>
-        <v>skv_grow_income</v>
+        <v>skv_grow_value</v>
       </c>
       <c r="C7" t="str">
         <f>"|"""&amp;special_keyvalue!A10&amp;""""</f>
@@ -2460,261 +2636,261 @@
       </c>
       <c r="C9" t="str">
         <f>"|"""&amp;special_keyvalue!A12&amp;""""</f>
-        <v>|"skv_surround_count"</v>
+        <v>|"skv_surround_limit"</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" ht="16.5" spans="1:4">
       <c r="A10" t="str">
         <f>special_keyvalue!A12</f>
-        <v>skv_surround_count</v>
+        <v>skv_surround_limit</v>
       </c>
       <c r="C10" t="str">
-        <f>"|"""&amp;special_keyvalue!A13&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A14&amp;""""</f>
         <v>|"skv_ring_width"</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" ht="16.5" spans="1:4">
       <c r="A11" t="str">
-        <f>special_keyvalue!A13</f>
+        <f>special_keyvalue!A14</f>
         <v>skv_ring_width</v>
       </c>
       <c r="C11" t="str">
-        <f>"|"""&amp;special_keyvalue!A14&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A15&amp;""""</f>
         <v>|"skv_ring_interval"</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" ht="16.5" spans="1:4">
       <c r="A12" t="str">
-        <f>special_keyvalue!A14</f>
+        <f>special_keyvalue!A15</f>
         <v>skv_ring_interval</v>
       </c>
       <c r="C12" t="str">
-        <f>"|"""&amp;special_keyvalue!A15&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A19&amp;""""</f>
         <v>|"skv_bounce_count"</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" ht="16.5" spans="1:4">
       <c r="A13" t="str">
-        <f>special_keyvalue!A15</f>
+        <f>special_keyvalue!A19</f>
         <v>skv_bounce_count</v>
       </c>
       <c r="C13" t="str">
-        <f>"|"""&amp;special_keyvalue!A16&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A20&amp;""""</f>
         <v>|"skv_bounce_increase"</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="str">
-        <f>special_keyvalue!A16</f>
+        <f>special_keyvalue!A20</f>
         <v>skv_bounce_increase</v>
       </c>
       <c r="C14" t="str">
-        <f>"|"""&amp;special_keyvalue!A17&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A21&amp;""""</f>
         <v>|"skv_target_count"</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="str">
-        <f>special_keyvalue!A17</f>
+        <f>special_keyvalue!A21</f>
         <v>skv_target_count</v>
       </c>
       <c r="C15" t="str">
-        <f>"|"""&amp;special_keyvalue!A18&amp;""""</f>
-        <v>|"skv_resource_percent"</v>
+        <f>"|"""&amp;special_keyvalue!A22&amp;""""</f>
+        <v>|"skv_resource_income"</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="str">
-        <f>special_keyvalue!A18</f>
-        <v>skv_resource_percent</v>
+        <f>special_keyvalue!A22</f>
+        <v>skv_resource_income</v>
       </c>
       <c r="C16" t="str">
-        <f>"|"""&amp;special_keyvalue!A19&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A23&amp;""""</f>
         <v>|"skv_buff_increase"</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="str">
-        <f>special_keyvalue!A19</f>
+        <f>special_keyvalue!A23</f>
         <v>skv_buff_increase</v>
       </c>
       <c r="C17" t="str">
-        <f>"|"""&amp;special_keyvalue!A20&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A24&amp;""""</f>
         <v>|"skv_orb_chance"</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="str">
-        <f>special_keyvalue!A20</f>
+        <f>special_keyvalue!A24</f>
         <v>skv_orb_chance</v>
       </c>
       <c r="C18" t="str">
-        <f>"|"""&amp;special_keyvalue!A21&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A25&amp;""""</f>
         <v>|"skv_orb_count"</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="str">
-        <f>special_keyvalue!A21</f>
+        <f>special_keyvalue!A25</f>
         <v>skv_orb_count</v>
       </c>
       <c r="C19" t="str">
-        <f>"|"""&amp;special_keyvalue!A22&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A26&amp;""""</f>
         <v>|"skv_summon_duration"</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="str">
-        <f>special_keyvalue!A22</f>
+        <f>special_keyvalue!A26</f>
         <v>skv_summon_duration</v>
       </c>
       <c r="C20" t="str">
-        <f>"|"""&amp;special_keyvalue!A23&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A28&amp;""""</f>
         <v>|"skv_summon_strength"</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="str">
-        <f>special_keyvalue!A23</f>
+        <f>special_keyvalue!A28</f>
         <v>skv_summon_strength</v>
       </c>
       <c r="C21" t="str">
-        <f>"|"""&amp;special_keyvalue!A24&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A29&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <f>special_keyvalue!A24</f>
+        <f>special_keyvalue!A29</f>
         <v>0</v>
       </c>
       <c r="C22" t="str">
-        <f>"|"""&amp;special_keyvalue!A25&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A30&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <f>special_keyvalue!A25</f>
+        <f>special_keyvalue!A30</f>
         <v>0</v>
       </c>
       <c r="C23" t="str">
-        <f>"|"""&amp;special_keyvalue!A26&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A31&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <f>special_keyvalue!A26</f>
+        <f>special_keyvalue!A31</f>
         <v>0</v>
       </c>
       <c r="C24" t="str">
-        <f>"|"""&amp;special_keyvalue!A27&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A32&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <f>special_keyvalue!A27</f>
+        <f>special_keyvalue!A32</f>
         <v>0</v>
       </c>
       <c r="C25" t="str">
-        <f>"|"""&amp;special_keyvalue!A28&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A33&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <f>special_keyvalue!A28</f>
+        <f>special_keyvalue!A33</f>
         <v>0</v>
       </c>
       <c r="C26" t="str">
-        <f>"|"""&amp;special_keyvalue!A29&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A34&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <f>special_keyvalue!A29</f>
+        <f>special_keyvalue!A34</f>
         <v>0</v>
       </c>
       <c r="C27" t="str">
-        <f>"|"""&amp;special_keyvalue!A30&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A35&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <f>special_keyvalue!A30</f>
+        <f>special_keyvalue!A35</f>
         <v>0</v>
       </c>
       <c r="C28" t="str">
-        <f>"|"""&amp;special_keyvalue!A31&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A36&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <f>special_keyvalue!A31</f>
+        <f>special_keyvalue!A36</f>
         <v>0</v>
       </c>
       <c r="C29" t="str">
-        <f>"|"""&amp;special_keyvalue!A32&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A37&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <f>special_keyvalue!A32</f>
+        <f>special_keyvalue!A37</f>
         <v>0</v>
       </c>
       <c r="C30" t="str">
-        <f>"|"""&amp;special_keyvalue!A33&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A38&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <f>special_keyvalue!A33</f>
+        <f>special_keyvalue!A38</f>
         <v>0</v>
       </c>
       <c r="C31" t="str">
-        <f>"|"""&amp;special_keyvalue!A34&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A39&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <f>special_keyvalue!A34</f>
+        <f>special_keyvalue!A39</f>
         <v>0</v>
       </c>
       <c r="C32" t="str">
-        <f>"|"""&amp;special_keyvalue!A35&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A40&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <f>special_keyvalue!A35</f>
+        <f>special_keyvalue!A40</f>
         <v>0</v>
       </c>
       <c r="C33" t="str">
-        <f>"|"""&amp;special_keyvalue!A32&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A37&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <f>special_keyvalue!A33</f>
+        <f>special_keyvalue!A38</f>
         <v>0</v>
       </c>
       <c r="C34" t="str">
-        <f>"|"""&amp;special_keyvalue!A33&amp;""""</f>
+        <f>"|"""&amp;special_keyvalue!A38&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -2740,7 +2916,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2748,7 +2924,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2756,7 +2932,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2764,31 +2940,31 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2796,52 +2972,52 @@
         <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/special_keyvalue.xlsx
+++ b/excels/config/game/special_keyvalue.xlsx
@@ -12,7 +12,7 @@
     <sheet name="__Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">special_keyvalue!$B$1:$B$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">special_keyvalue!$C$1:$C$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="114">
   <si>
     <t>index  下标</t>
   </si>
@@ -46,18 +46,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>基础值</t>
-  </si>
-  <si>
-    <t>基础值百分比加成</t>
-  </si>
-  <si>
-    <t>独立乘区乘算</t>
-  </si>
-  <si>
-    <t>最终修正值</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
@@ -67,57 +55,66 @@
     <t>InCategory</t>
   </si>
   <si>
-    <t>AbilityValues[{]</t>
-  </si>
-  <si>
-    <t>[}]</t>
-  </si>
-  <si>
     <t>skv_missile_count</t>
   </si>
   <si>
+    <t>弹道个数</t>
+  </si>
+  <si>
     <t>弹道型</t>
   </si>
   <si>
-    <t>弹道数量,影响弹道型技能的KV值</t>
-  </si>
-  <si>
-    <t>Base 1</t>
-  </si>
-  <si>
-    <t>Percent 2</t>
-  </si>
-  <si>
-    <t>Multiple 3</t>
-  </si>
-  <si>
-    <t>Correct 4</t>
-  </si>
-  <si>
     <t>skv_missile_speed</t>
   </si>
   <si>
     <t>弹道速度</t>
   </si>
   <si>
+    <t>skv_missile_distance</t>
+  </si>
+  <si>
+    <t>弹道额外距离</t>
+  </si>
+  <si>
+    <t>skv_missile_dmg</t>
+  </si>
+  <si>
+    <t>弹道型伤害</t>
+  </si>
+  <si>
     <t>skv_aoe_radius</t>
   </si>
   <si>
+    <t>技能范围</t>
+  </si>
+  <si>
     <t>范围型</t>
   </si>
   <si>
     <t>范围型范围</t>
   </si>
   <si>
-    <t>skv_aoe_set1</t>
+    <t>skv_aoe_multiple</t>
+  </si>
+  <si>
+    <t>多重概率?</t>
   </si>
   <si>
     <t>未定义</t>
   </si>
   <si>
+    <t>skv_aoe_dmg</t>
+  </si>
+  <si>
+    <t>范围型伤害</t>
+  </si>
+  <si>
     <t>skv_dot_duration</t>
   </si>
   <si>
+    <t>持续时间</t>
+  </si>
+  <si>
     <t>持续型</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
     <t>skv_dot_interval</t>
   </si>
   <si>
+    <t>伤害间隔效率</t>
+  </si>
+  <si>
     <t>持续周期%</t>
   </si>
   <si>
@@ -142,19 +142,19 @@
     <t>skv_surround_speed</t>
   </si>
   <si>
+    <t>环绕速度</t>
+  </si>
+  <si>
     <t>环绕型</t>
   </si>
   <si>
-    <t>环绕速度</t>
-  </si>
-  <si>
-    <t>skv_surround_duration</t>
-  </si>
-  <si>
-    <t>环绕物持续时间</t>
-  </si>
-  <si>
-    <t>skv_surround_limit</t>
+    <t>skv_surround_dmg</t>
+  </si>
+  <si>
+    <t>环绕伤害</t>
+  </si>
+  <si>
+    <t>skv_surround_count</t>
   </si>
   <si>
     <t>环绕物个数</t>
@@ -163,7 +163,7 @@
     <t>skv_surround_distance</t>
   </si>
   <si>
-    <t>环绕距离</t>
+    <t>环绕范围</t>
   </si>
   <si>
     <t>skv_ring_width</t>
@@ -178,12 +178,18 @@
     <t>skv_ring_interval</t>
   </si>
   <si>
+    <t>线圈频率</t>
+  </si>
+  <si>
     <t>线圈判定周期%</t>
   </si>
   <si>
     <t>skv_ring_range</t>
   </si>
   <si>
+    <t>线圈距离范围</t>
+  </si>
+  <si>
     <t>线圈范围%</t>
   </si>
   <si>
@@ -199,19 +205,25 @@
     <t>skv_bounce_count</t>
   </si>
   <si>
+    <t>弹射个数</t>
+  </si>
+  <si>
     <t>弹射型</t>
   </si>
   <si>
-    <t>弹射次数</t>
-  </si>
-  <si>
     <t>skv_bounce_increase</t>
   </si>
   <si>
     <t>弹射增伤</t>
   </si>
   <si>
-    <t>skv_target_count</t>
+    <t>skv_bounce_reduction</t>
+  </si>
+  <si>
+    <t>衰减效率</t>
+  </si>
+  <si>
+    <t>skv_targeting_count</t>
   </si>
   <si>
     <t>目标型</t>
@@ -223,63 +235,114 @@
     <t>skv_resource_income</t>
   </si>
   <si>
+    <t>理财型技能收益</t>
+  </si>
+  <si>
     <t>理财型</t>
   </si>
   <si>
     <t>理财收益</t>
   </si>
   <si>
+    <t>skv_orb_chance</t>
+  </si>
+  <si>
+    <t>触发概率</t>
+  </si>
+  <si>
+    <t>法球型</t>
+  </si>
+  <si>
+    <t>法球概率</t>
+  </si>
+  <si>
+    <t>skv_orb_required</t>
+  </si>
+  <si>
+    <t>触发所需攻击次数</t>
+  </si>
+  <si>
+    <t>法球次数</t>
+  </si>
+  <si>
+    <t>skv_summon_duration</t>
+  </si>
+  <si>
+    <t>召唤物持续时间</t>
+  </si>
+  <si>
+    <t>召唤型</t>
+  </si>
+  <si>
+    <t>召唤时间</t>
+  </si>
+  <si>
+    <t>skv_summon_strength</t>
+  </si>
+  <si>
+    <t>召唤物强度</t>
+  </si>
+  <si>
+    <t>召唤物强度（攻击力、生命值、攻击速度）</t>
+  </si>
+  <si>
+    <t>skv_summon_haste</t>
+  </si>
+  <si>
+    <t>召唤类急速</t>
+  </si>
+  <si>
+    <t>直接缩减冷却</t>
+  </si>
+  <si>
+    <t>skv_growth_bonus</t>
+  </si>
+  <si>
+    <t>成长型技能加成</t>
+  </si>
+  <si>
     <t>skv_buff_increase</t>
   </si>
   <si>
+    <t>增益型技能效率</t>
+  </si>
+  <si>
     <t>增益型</t>
   </si>
   <si>
     <t>增益效率</t>
   </si>
   <si>
-    <t>skv_orb_chance</t>
-  </si>
-  <si>
-    <t>法球型</t>
-  </si>
-  <si>
-    <t>法球概率</t>
-  </si>
-  <si>
-    <t>skv_orb_count</t>
-  </si>
-  <si>
-    <t>法球次数</t>
-  </si>
-  <si>
-    <t>skv_summon_duration</t>
-  </si>
-  <si>
-    <t>召唤型</t>
-  </si>
-  <si>
-    <t>召唤时间</t>
-  </si>
-  <si>
-    <t>skv_summon_dmg</t>
-  </si>
-  <si>
-    <t>召唤物伤害乘区</t>
-  </si>
-  <si>
-    <t>skv_summon_strength</t>
-  </si>
-  <si>
-    <t>召唤物强度</t>
+    <t>skv_all_haste</t>
+  </si>
+  <si>
+    <t>通用型</t>
+  </si>
+  <si>
+    <t>skv_all_dmg</t>
+  </si>
+  <si>
+    <t>技能伤害提高</t>
+  </si>
+  <si>
+    <t>skv_all_manacost</t>
+  </si>
+  <si>
+    <t>技能蓝耗降低</t>
   </si>
   <si>
     <t>Aoe</t>
   </si>
   <si>
+    <t>Summon</t>
+  </si>
+  <si>
     <t>Missile</t>
   </si>
   <si>
+    <t>Ring</t>
+  </si>
+  <si>
     <t>Surround</t>
   </si>
   <si>
@@ -289,13 +352,16 @@
     <t>Buff</t>
   </si>
   <si>
+    <t>Bounce</t>
+  </si>
+  <si>
     <t>Resource</t>
   </si>
   <si>
-    <t>Summon</t>
-  </si>
-  <si>
-    <t>Grow</t>
+    <t>Targeting</t>
+  </si>
+  <si>
+    <t>Growth</t>
   </si>
   <si>
     <t>Orb</t>
@@ -307,13 +373,7 @@
     <t>Null</t>
   </si>
   <si>
-    <t>Ring</t>
-  </si>
-  <si>
-    <t>Bounce</t>
-  </si>
-  <si>
-    <t>Targe</t>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -498,7 +558,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,12 +579,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA3BCDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -710,7 +764,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -800,15 +854,6 @@
       <left style="thick">
         <color rgb="FF595959"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
       <right style="medium">
         <color rgb="FFFFFFFF"/>
       </right>
@@ -824,136 +869,6 @@
       </left>
       <right style="medium">
         <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
       </right>
       <top/>
       <bottom style="thick">
@@ -1085,7 +1000,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1097,119 +1012,119 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1237,58 +1152,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1486,12 +1365,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{DAEAC354-981A-4854-A1A1-5BEA181135E7}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1564E611-58B8-468D-9C31-0AB4FFCCF341}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DA1545F4-1DCD-464A-A17D-969EC2AD2773}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{00A486B3-417A-4F6F-BA8F-D0C90BEFBBDC}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
@@ -1754,443 +1633,289 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="25.8416666666667" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="25.8416666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.675" customWidth="1"/>
-    <col min="6" max="6" width="17.175" customWidth="1"/>
-    <col min="7" max="7" width="10.5083333333333" customWidth="1"/>
-    <col min="8" max="8" width="21.675" customWidth="1"/>
-    <col min="9" max="9" width="16.0083333333333" customWidth="1"/>
-    <col min="10" max="10" width="14.175" customWidth="1"/>
+    <col min="1" max="1" width="21.8416666666667" customWidth="1"/>
+    <col min="2" max="2" width="22.8416666666667" customWidth="1"/>
+    <col min="3" max="3" width="10.3416666666667" customWidth="1"/>
+    <col min="4" max="4" width="11.8416666666667" customWidth="1"/>
+    <col min="5" max="5" width="33.675" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:11">
+    <row r="1" ht="18.5" customHeight="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+    </row>
+    <row r="2" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A2" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2</v>
-      </c>
-      <c r="I2" s="5">
-        <v>3</v>
-      </c>
-      <c r="J2" s="23">
-        <v>4</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="33" spans="1:13">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="4" t="str">
         <f>VLOOKUP(C3,__Sheet3!A:B,2,FALSE)</f>
         <v>Missile</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:13">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" ht="18.5" customHeight="1" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="str">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="str">
         <f>VLOOKUP(C4,__Sheet3!A:B,2,FALSE)</f>
         <v>Missile</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A5" s="9" t="s">
-        <v>22</v>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="str">
         <f>VLOOKUP(C5,__Sheet3!A:B,2,FALSE)</f>
-        <v>Aoe</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="22"/>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4" t="str">
+        <v>Missile</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="str">
         <f>VLOOKUP(C6,__Sheet3!A:B,2,FALSE)</f>
-        <v>Aoe</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="22"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>Missile</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="str">
         <f>VLOOKUP(C7,__Sheet3!A:B,2,FALSE)</f>
-        <v>Dot</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="22"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4" t="str">
+        <v>Aoe</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="str">
         <f>VLOOKUP(C8,__Sheet3!A:B,2,FALSE)</f>
-        <v>Dot</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="22"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>Aoe</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="str">
         <f>VLOOKUP(C9,__Sheet3!A:B,2,FALSE)</f>
-        <v>Grow</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="22"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="4" t="str">
+        <v>Aoe</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="9" t="str">
         <f>VLOOKUP(C10,__Sheet3!A:B,2,FALSE)</f>
-        <v>Surround</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="22"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>Dot</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="str">
         <f>VLOOKUP(C11,__Sheet3!A:B,2,FALSE)</f>
-        <v>Surround</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="22"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="4" t="s">
+        <v>Dot</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="9" t="str">
+        <f>VLOOKUP(C12,__Sheet3!A:B,2,FALSE)</f>
+        <v>Growth</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f>VLOOKUP(C12,__Sheet3!A:B,2,FALSE)</f>
-        <v>Surround</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="4" t="str">
         <f>VLOOKUP(C13,__Sheet3!A:B,2,FALSE)</f>
         <v>Surround</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:11">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="4" t="str">
+        <v>38</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="9" t="str">
         <f>VLOOKUP(C14,__Sheet3!A:B,2,FALSE)</f>
-        <v>Ring</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A15" s="9" t="s">
-        <v>47</v>
+        <v>Surround</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4" t="str">
         <f>VLOOKUP(C15,__Sheet3!A:B,2,FALSE)</f>
-        <v>Ring</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="22"/>
-      <c r="M15" s="19"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="4" t="str">
+        <v>Surround</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="9" t="str">
         <f>VLOOKUP(C16,__Sheet3!A:B,2,FALSE)</f>
-        <v>Ring</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="22"/>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A17" s="9" t="s">
+        <v>Surround</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A17" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2204,335 +1929,349 @@
         <v>Ring</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="22"/>
-      <c r="M17" s="19"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="4" t="str">
+      <c r="D18" s="9" t="str">
         <f>VLOOKUP(C18,__Sheet3!A:B,2,FALSE)</f>
         <v>Ring</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="22"/>
-      <c r="M18" s="19"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>55</v>
+      <c r="E18" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D19" s="4" t="str">
         <f>VLOOKUP(C19,__Sheet3!A:B,2,FALSE)</f>
-        <v>Bounce</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="4" t="s">
+        <v>Ring</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="9" t="str">
+        <f>VLOOKUP(C20,__Sheet3!A:B,2,FALSE)</f>
+        <v>Ring</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f>VLOOKUP(C20,__Sheet3!A:B,2,FALSE)</f>
-        <v>Bounce</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>60</v>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D21" s="4" t="str">
         <f>VLOOKUP(C21,__Sheet3!A:B,2,FALSE)</f>
-        <v>Targe</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A22" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="4" t="str">
+        <v>Ring</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="9" t="str">
         <f>VLOOKUP(C22,__Sheet3!A:B,2,FALSE)</f>
-        <v>Resource</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="23" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>66</v>
+        <v>Bounce</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D23" s="4" t="str">
         <f>VLOOKUP(C23,__Sheet3!A:B,2,FALSE)</f>
-        <v>Buff</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="4" t="str">
+        <v>Bounce</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="9" t="str">
         <f>VLOOKUP(C24,__Sheet3!A:B,2,FALSE)</f>
-        <v>Orb</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A25" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>69</v>
+        <v>Bounce</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D25" s="4" t="str">
         <f>VLOOKUP(C25,__Sheet3!A:B,2,FALSE)</f>
-        <v>Orb</v>
-      </c>
-      <c r="E25" s="5" t="s">
+        <v>Targeting</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="9" t="str">
+        <f>VLOOKUP(C26,__Sheet3!A:B,2,FALSE)</f>
+        <v>Resource</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="23"/>
-    </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A26" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="4" t="str">
-        <f>VLOOKUP(C26,__Sheet3!A:B,2,FALSE)</f>
-        <v>Summon</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A27" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D27" s="4" t="str">
         <f>VLOOKUP(C27,__Sheet3!A:B,2,FALSE)</f>
+        <v>Orb</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="9" t="str">
+        <f>VLOOKUP(C28,__Sheet3!A:B,2,FALSE)</f>
+        <v>Orb</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A29" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f>VLOOKUP(C29,__Sheet3!A:B,2,FALSE)</f>
         <v>Summon</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="4" t="str">
-        <f>VLOOKUP(C28,__Sheet3!A:B,2,FALSE)</f>
+      <c r="E29" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="9" t="str">
+        <f>VLOOKUP(C30,__Sheet3!A:B,2,FALSE)</f>
         <v>Summon</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E30" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="29" ht="17.25" spans="1:5">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:5">
-      <c r="A30" s="17"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:5">
-      <c r="A31" s="17"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:5">
-      <c r="A32" s="17"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:5">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:5">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="37" ht="16.5" spans="2:4">
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="D31" s="4" t="str">
+        <f>VLOOKUP(C31,__Sheet3!A:B,2,FALSE)</f>
+        <v>Summon</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="9" t="str">
+        <f>VLOOKUP(C32,__Sheet3!A:B,2,FALSE)</f>
+        <v>Growth</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A33" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="4" t="str">
+        <f>VLOOKUP(C33,__Sheet3!A:B,2,FALSE)</f>
+        <v>Buff</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A34" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="9" t="str">
+        <f>VLOOKUP(C34,__Sheet3!A:B,2,FALSE)</f>
+        <v>All</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="4" t="str">
+        <f>VLOOKUP(C35,__Sheet3!A:B,2,FALSE)</f>
+        <v>All</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A36" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="14" t="str">
+        <f>VLOOKUP(C36,__Sheet3!A:B,2,FALSE)</f>
+        <v>All</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B39">
+  <autoFilter ref="C1:C37">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="B37:D37">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15:M18">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"y"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2542,10 +2281,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D34"/>
+  <dimension ref="A2:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C20"/>
+      <selection activeCell="C2" sqref="C2:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2571,326 +2310,386 @@
         <v>skv_missile_speed</v>
       </c>
       <c r="C3" t="str">
-        <f>"|"""&amp;special_keyvalue!A5&amp;""""</f>
-        <v>|"skv_aoe_radius"</v>
+        <f>"|"""&amp;special_keyvalue!A4&amp;""""</f>
+        <v>|"skv_missile_speed"</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="str">
         <f>special_keyvalue!A5</f>
-        <v>skv_aoe_radius</v>
+        <v>skv_missile_distance</v>
       </c>
       <c r="C4" t="str">
-        <f>"|"""&amp;special_keyvalue!A7&amp;""""</f>
-        <v>|"skv_dot_duration"</v>
+        <f>"|"""&amp;special_keyvalue!A5&amp;""""</f>
+        <v>|"skv_missile_distance"</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:4">
       <c r="A5" t="str">
-        <f>special_keyvalue!A7</f>
-        <v>skv_dot_duration</v>
+        <f>special_keyvalue!A6</f>
+        <v>skv_missile_dmg</v>
       </c>
       <c r="C5" t="str">
-        <f>"|"""&amp;special_keyvalue!A8&amp;""""</f>
-        <v>|"skv_dot_interval"</v>
+        <f>"|"""&amp;special_keyvalue!A6&amp;""""</f>
+        <v>|"skv_missile_dmg"</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" ht="16.5" spans="1:4">
       <c r="A6" t="str">
-        <f>special_keyvalue!A8</f>
-        <v>skv_dot_interval</v>
+        <f>special_keyvalue!A7</f>
+        <v>skv_aoe_radius</v>
       </c>
       <c r="C6" t="str">
-        <f>"|"""&amp;special_keyvalue!A9&amp;""""</f>
-        <v>|"skv_grow_value"</v>
+        <f>"|"""&amp;special_keyvalue!A7&amp;""""</f>
+        <v>|"skv_aoe_radius"</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" ht="16.5" spans="1:4">
       <c r="A7" t="str">
-        <f>special_keyvalue!A9</f>
-        <v>skv_grow_value</v>
+        <f>special_keyvalue!A8</f>
+        <v>skv_aoe_multiple</v>
       </c>
       <c r="C7" t="str">
-        <f>"|"""&amp;special_keyvalue!A10&amp;""""</f>
-        <v>|"skv_surround_speed"</v>
+        <f>"|"""&amp;special_keyvalue!A8&amp;""""</f>
+        <v>|"skv_aoe_multiple"</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" ht="16.5" spans="1:4">
       <c r="A8" t="str">
-        <f>special_keyvalue!A10</f>
-        <v>skv_surround_speed</v>
+        <f>special_keyvalue!A9</f>
+        <v>skv_aoe_dmg</v>
       </c>
       <c r="C8" t="str">
-        <f>"|"""&amp;special_keyvalue!A11&amp;""""</f>
-        <v>|"skv_surround_duration"</v>
+        <f>"|"""&amp;special_keyvalue!A9&amp;""""</f>
+        <v>|"skv_aoe_dmg"</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" ht="16.5" spans="1:4">
       <c r="A9" t="str">
-        <f>special_keyvalue!A11</f>
-        <v>skv_surround_duration</v>
+        <f>special_keyvalue!A10</f>
+        <v>skv_dot_duration</v>
       </c>
       <c r="C9" t="str">
-        <f>"|"""&amp;special_keyvalue!A12&amp;""""</f>
-        <v>|"skv_surround_limit"</v>
+        <f>"|"""&amp;special_keyvalue!A10&amp;""""</f>
+        <v>|"skv_dot_duration"</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" ht="16.5" spans="1:4">
       <c r="A10" t="str">
-        <f>special_keyvalue!A12</f>
-        <v>skv_surround_limit</v>
+        <f>special_keyvalue!A11</f>
+        <v>skv_dot_interval</v>
       </c>
       <c r="C10" t="str">
-        <f>"|"""&amp;special_keyvalue!A14&amp;""""</f>
-        <v>|"skv_ring_width"</v>
+        <f>"|"""&amp;special_keyvalue!A11&amp;""""</f>
+        <v>|"skv_dot_interval"</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" ht="16.5" spans="1:4">
       <c r="A11" t="str">
-        <f>special_keyvalue!A14</f>
-        <v>skv_ring_width</v>
+        <f>special_keyvalue!A12</f>
+        <v>skv_grow_value</v>
       </c>
       <c r="C11" t="str">
-        <f>"|"""&amp;special_keyvalue!A15&amp;""""</f>
-        <v>|"skv_ring_interval"</v>
+        <f>"|"""&amp;special_keyvalue!A12&amp;""""</f>
+        <v>|"skv_grow_value"</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" ht="16.5" spans="1:4">
       <c r="A12" t="str">
-        <f>special_keyvalue!A15</f>
-        <v>skv_ring_interval</v>
+        <f>special_keyvalue!A13</f>
+        <v>skv_surround_speed</v>
       </c>
       <c r="C12" t="str">
-        <f>"|"""&amp;special_keyvalue!A19&amp;""""</f>
-        <v>|"skv_bounce_count"</v>
+        <f>"|"""&amp;special_keyvalue!A13&amp;""""</f>
+        <v>|"skv_surround_speed"</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" ht="16.5" spans="1:4">
       <c r="A13" t="str">
-        <f>special_keyvalue!A19</f>
-        <v>skv_bounce_count</v>
+        <f>special_keyvalue!A14</f>
+        <v>skv_surround_dmg</v>
       </c>
       <c r="C13" t="str">
-        <f>"|"""&amp;special_keyvalue!A20&amp;""""</f>
-        <v>|"skv_bounce_increase"</v>
+        <f>"|"""&amp;special_keyvalue!A14&amp;""""</f>
+        <v>|"skv_surround_dmg"</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="str">
-        <f>special_keyvalue!A20</f>
-        <v>skv_bounce_increase</v>
+        <f>special_keyvalue!A15</f>
+        <v>skv_surround_count</v>
       </c>
       <c r="C14" t="str">
-        <f>"|"""&amp;special_keyvalue!A21&amp;""""</f>
-        <v>|"skv_target_count"</v>
+        <f>"|"""&amp;special_keyvalue!A15&amp;""""</f>
+        <v>|"skv_surround_count"</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="str">
-        <f>special_keyvalue!A21</f>
-        <v>skv_target_count</v>
+        <f>special_keyvalue!A16</f>
+        <v>skv_surround_distance</v>
       </c>
       <c r="C15" t="str">
-        <f>"|"""&amp;special_keyvalue!A22&amp;""""</f>
-        <v>|"skv_resource_income"</v>
+        <f>"|"""&amp;special_keyvalue!A16&amp;""""</f>
+        <v>|"skv_surround_distance"</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="str">
-        <f>special_keyvalue!A22</f>
-        <v>skv_resource_income</v>
+        <f>special_keyvalue!A17</f>
+        <v>skv_ring_width</v>
       </c>
       <c r="C16" t="str">
-        <f>"|"""&amp;special_keyvalue!A23&amp;""""</f>
-        <v>|"skv_buff_increase"</v>
+        <f>"|"""&amp;special_keyvalue!A17&amp;""""</f>
+        <v>|"skv_ring_width"</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="str">
-        <f>special_keyvalue!A23</f>
-        <v>skv_buff_increase</v>
+        <f>special_keyvalue!A18</f>
+        <v>skv_ring_interval</v>
       </c>
       <c r="C17" t="str">
-        <f>"|"""&amp;special_keyvalue!A24&amp;""""</f>
-        <v>|"skv_orb_chance"</v>
+        <f>"|"""&amp;special_keyvalue!A18&amp;""""</f>
+        <v>|"skv_ring_interval"</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="str">
-        <f>special_keyvalue!A24</f>
-        <v>skv_orb_chance</v>
+        <f>special_keyvalue!A19</f>
+        <v>skv_ring_range</v>
       </c>
       <c r="C18" t="str">
-        <f>"|"""&amp;special_keyvalue!A25&amp;""""</f>
-        <v>|"skv_orb_count"</v>
+        <f>"|"""&amp;special_keyvalue!A19&amp;""""</f>
+        <v>|"skv_ring_range"</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="str">
-        <f>special_keyvalue!A25</f>
-        <v>skv_orb_count</v>
+        <f>special_keyvalue!A20</f>
+        <v>skv_ring_width</v>
       </c>
       <c r="C19" t="str">
-        <f>"|"""&amp;special_keyvalue!A26&amp;""""</f>
-        <v>|"skv_summon_duration"</v>
+        <f>"|"""&amp;special_keyvalue!A20&amp;""""</f>
+        <v>|"skv_ring_width"</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="str">
-        <f>special_keyvalue!A26</f>
-        <v>skv_summon_duration</v>
+        <f>special_keyvalue!A21</f>
+        <v>skv_ring_dmg</v>
       </c>
       <c r="C20" t="str">
-        <f>"|"""&amp;special_keyvalue!A28&amp;""""</f>
-        <v>|"skv_summon_strength"</v>
+        <f>"|"""&amp;special_keyvalue!A21&amp;""""</f>
+        <v>|"skv_ring_dmg"</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="str">
+        <f>special_keyvalue!A22</f>
+        <v>skv_bounce_count</v>
+      </c>
+      <c r="C21" t="str">
+        <f>"|"""&amp;special_keyvalue!A22&amp;""""</f>
+        <v>|"skv_bounce_count"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="str">
+        <f>special_keyvalue!A23</f>
+        <v>skv_bounce_increase</v>
+      </c>
+      <c r="C22" t="str">
+        <f>"|"""&amp;special_keyvalue!A23&amp;""""</f>
+        <v>|"skv_bounce_increase"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="str">
+        <f>special_keyvalue!A24</f>
+        <v>skv_bounce_reduction</v>
+      </c>
+      <c r="C23" t="str">
+        <f>"|"""&amp;special_keyvalue!A24&amp;""""</f>
+        <v>|"skv_bounce_reduction"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="str">
+        <f>special_keyvalue!A25</f>
+        <v>skv_targeting_count</v>
+      </c>
+      <c r="C24" t="str">
+        <f>"|"""&amp;special_keyvalue!A25&amp;""""</f>
+        <v>|"skv_targeting_count"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="str">
+        <f>special_keyvalue!A26</f>
+        <v>skv_resource_income</v>
+      </c>
+      <c r="C25" t="str">
+        <f>"|"""&amp;special_keyvalue!A26&amp;""""</f>
+        <v>|"skv_resource_income"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="str">
+        <f>special_keyvalue!A27</f>
+        <v>skv_orb_chance</v>
+      </c>
+      <c r="C26" t="str">
+        <f>"|"""&amp;special_keyvalue!A27&amp;""""</f>
+        <v>|"skv_orb_chance"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="str">
         <f>special_keyvalue!A28</f>
+        <v>skv_orb_required</v>
+      </c>
+      <c r="C27" t="str">
+        <f>"|"""&amp;special_keyvalue!A28&amp;""""</f>
+        <v>|"skv_orb_required"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="str">
+        <f>special_keyvalue!A29</f>
+        <v>skv_summon_duration</v>
+      </c>
+      <c r="C28" t="str">
+        <f>"|"""&amp;special_keyvalue!A29&amp;""""</f>
+        <v>|"skv_summon_duration"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="str">
+        <f>special_keyvalue!A30</f>
         <v>skv_summon_strength</v>
       </c>
-      <c r="C21" t="str">
-        <f>"|"""&amp;special_keyvalue!A29&amp;""""</f>
-        <v>|""</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <f>special_keyvalue!A29</f>
+      <c r="C29" t="str">
+        <f>"|"""&amp;special_keyvalue!A30&amp;""""</f>
+        <v>|"skv_summon_strength"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="str">
+        <f>special_keyvalue!A31</f>
+        <v>skv_summon_haste</v>
+      </c>
+      <c r="C30" t="str">
+        <f>"|"""&amp;special_keyvalue!A31&amp;""""</f>
+        <v>|"skv_summon_haste"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="str">
+        <f>special_keyvalue!A32</f>
+        <v>skv_growth_bonus</v>
+      </c>
+      <c r="C31" t="str">
+        <f>"|"""&amp;special_keyvalue!A32&amp;""""</f>
+        <v>|"skv_growth_bonus"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="str">
+        <f>special_keyvalue!A33</f>
+        <v>skv_buff_increase</v>
+      </c>
+      <c r="C32" t="str">
+        <f>"|"""&amp;special_keyvalue!A33&amp;""""</f>
+        <v>|"skv_buff_increase"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="str">
+        <f>special_keyvalue!A34</f>
+        <v>skv_all_haste</v>
+      </c>
+      <c r="C33" t="str">
+        <f>"|"""&amp;special_keyvalue!A34&amp;""""</f>
+        <v>|"skv_all_haste"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="str">
+        <f>special_keyvalue!A35</f>
+        <v>skv_all_dmg</v>
+      </c>
+      <c r="C34" t="str">
+        <f>"|"""&amp;special_keyvalue!A35&amp;""""</f>
+        <v>|"skv_all_dmg"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="str">
+        <f>special_keyvalue!A36</f>
+        <v>skv_all_manacost</v>
+      </c>
+      <c r="C35" t="str">
+        <f>"|"""&amp;special_keyvalue!A36&amp;""""</f>
+        <v>|"skv_all_manacost"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <f>special_keyvalue!A37</f>
         <v>0</v>
       </c>
-      <c r="C22" t="str">
-        <f>"|"""&amp;special_keyvalue!A30&amp;""""</f>
-        <v>|""</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <f>special_keyvalue!A30</f>
-        <v>0</v>
-      </c>
-      <c r="C23" t="str">
-        <f>"|"""&amp;special_keyvalue!A31&amp;""""</f>
-        <v>|""</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <f>special_keyvalue!A31</f>
-        <v>0</v>
-      </c>
-      <c r="C24" t="str">
-        <f>"|"""&amp;special_keyvalue!A32&amp;""""</f>
-        <v>|""</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <f>special_keyvalue!A32</f>
-        <v>0</v>
-      </c>
-      <c r="C25" t="str">
-        <f>"|"""&amp;special_keyvalue!A33&amp;""""</f>
-        <v>|""</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <f>special_keyvalue!A33</f>
-        <v>0</v>
-      </c>
-      <c r="C26" t="str">
-        <f>"|"""&amp;special_keyvalue!A34&amp;""""</f>
-        <v>|""</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <f>special_keyvalue!A34</f>
-        <v>0</v>
-      </c>
-      <c r="C27" t="str">
-        <f>"|"""&amp;special_keyvalue!A35&amp;""""</f>
-        <v>|""</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <f>special_keyvalue!A35</f>
-        <v>0</v>
-      </c>
-      <c r="C28" t="str">
-        <f>"|"""&amp;special_keyvalue!A36&amp;""""</f>
-        <v>|""</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <f>special_keyvalue!A36</f>
-        <v>0</v>
-      </c>
-      <c r="C29" t="str">
+      <c r="C36" t="str">
         <f>"|"""&amp;special_keyvalue!A37&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <f>special_keyvalue!A37</f>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <f>special_keyvalue!A38</f>
         <v>0</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C37" t="str">
         <f>"|"""&amp;special_keyvalue!A38&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <f>special_keyvalue!A38</f>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <f>special_keyvalue!A39</f>
         <v>0</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C38" t="str">
         <f>"|"""&amp;special_keyvalue!A39&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <f>special_keyvalue!A39</f>
-        <v>0</v>
-      </c>
-      <c r="C32" t="str">
-        <f>"|"""&amp;special_keyvalue!A40&amp;""""</f>
-        <v>|""</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
+    <row r="39" spans="1:3">
+      <c r="A39">
         <f>special_keyvalue!A40</f>
         <v>0</v>
       </c>
-      <c r="C33" t="str">
-        <f>"|"""&amp;special_keyvalue!A37&amp;""""</f>
+      <c r="C39" t="str">
+        <f>"|"""&amp;special_keyvalue!A43&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <f>special_keyvalue!A38</f>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <f>special_keyvalue!A41</f>
         <v>0</v>
       </c>
-      <c r="C34" t="str">
-        <f>"|"""&amp;special_keyvalue!A38&amp;""""</f>
+      <c r="C40" t="str">
+        <f>"|"""&amp;special_keyvalue!A44&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -2903,121 +2702,196 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>110</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:2">
+        <v>112</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>92</v>
+      <c r="F12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/special_keyvalue.xlsx
+++ b/excels/config/game/special_keyvalue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="special_keyvalue" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="__Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">special_keyvalue!$C$1:$C$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">special_keyvalue!$C$1:$C$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="133">
   <si>
     <t>index  下标</t>
   </si>
@@ -94,19 +94,25 @@
     <t>范围型范围</t>
   </si>
   <si>
-    <t>skv_aoe_multiple</t>
-  </si>
-  <si>
-    <t>多重概率?</t>
+    <t>skv_aoe_chance</t>
+  </si>
+  <si>
+    <t>范围多重概率</t>
   </si>
   <si>
     <t>未定义</t>
   </si>
   <si>
+    <t>skv_aoe_correct</t>
+  </si>
+  <si>
+    <t>范围害修正</t>
+  </si>
+  <si>
     <t>skv_aoe_dmg</t>
   </si>
   <si>
-    <t>范围型伤害</t>
+    <t>范围害加成</t>
   </si>
   <si>
     <t>skv_dot_duration</t>
@@ -130,6 +136,12 @@
     <t>持续周期%</t>
   </si>
   <si>
+    <t>skv_dot_dmg</t>
+  </si>
+  <si>
+    <t>持续型伤害</t>
+  </si>
+  <si>
     <t>skv_grow_value</t>
   </si>
   <si>
@@ -166,6 +178,9 @@
     <t>环绕范围</t>
   </si>
   <si>
+    <t>环绕型伤害</t>
+  </si>
+  <si>
     <t>skv_ring_width</t>
   </si>
   <si>
@@ -223,6 +238,12 @@
     <t>衰减效率</t>
   </si>
   <si>
+    <t>skv_bounce_dmg</t>
+  </si>
+  <si>
+    <t>弹射型伤害</t>
+  </si>
+  <si>
     <t>skv_targeting_count</t>
   </si>
   <si>
@@ -232,6 +253,30 @@
     <t>目标个数</t>
   </si>
   <si>
+    <t>skv_targeting_dmg</t>
+  </si>
+  <si>
+    <t>目标型伤害</t>
+  </si>
+  <si>
+    <t>skv_targeting_multiple1</t>
+  </si>
+  <si>
+    <t>额外1目标概率</t>
+  </si>
+  <si>
+    <t>skv_targeting_multiple2</t>
+  </si>
+  <si>
+    <t>额外2目标概率</t>
+  </si>
+  <si>
+    <t>skv_targeting_multiple3</t>
+  </si>
+  <si>
+    <t>额外3目标概率</t>
+  </si>
+  <si>
     <t>skv_resource_income</t>
   </si>
   <si>
@@ -265,6 +310,12 @@
     <t>法球次数</t>
   </si>
   <si>
+    <t>skv_orb_dmg</t>
+  </si>
+  <si>
+    <t>法球型伤害</t>
+  </si>
+  <si>
     <t>skv_summon_duration</t>
   </si>
   <si>
@@ -293,6 +344,12 @@
   </si>
   <si>
     <t>直接缩减冷却</t>
+  </si>
+  <si>
+    <t>skv_summon_dmg</t>
+  </si>
+  <si>
+    <t>召唤型伤害</t>
   </si>
   <si>
     <t>skv_growth_bonus</t>
@@ -1124,7 +1181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,16 +1209,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1365,12 +1413,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1564E611-58B8-468D-9C31-0AB4FFCCF341}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F3BA371A-EB90-47D8-BBC4-44DE96061581}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{00A486B3-417A-4F6F-BA8F-D0C90BEFBBDC}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{D1885762-C961-4BC4-A496-B19DE3DFD139}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
@@ -1633,22 +1681,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="22.8416666666667" customWidth="1"/>
-    <col min="3" max="3" width="10.3416666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8416666666667" customWidth="1"/>
-    <col min="5" max="5" width="33.675" customWidth="1"/>
+    <col min="1" max="1" width="24.8416666666667" customWidth="1"/>
+    <col min="2" max="2" width="25.8416666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.3416666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.8416666666667" customWidth="1"/>
+    <col min="5" max="5" width="37.675" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1" spans="1:5">
+    <row r="1" ht="22.5" customHeight="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1665,21 +1713,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18.5" customHeight="1" spans="1:5">
+    <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1694,24 +1742,24 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:5">
+    <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="5" t="str">
         <f>VLOOKUP(C4,__Sheet3!A:B,2,FALSE)</f>
         <v>Missile</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1726,24 +1774,24 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:5">
+    <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="D6" s="5" t="str">
         <f>VLOOKUP(C6,__Sheet3!A:B,2,FALSE)</f>
         <v>Missile</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A7" s="10" t="s">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1760,26 +1808,26 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="18.5" customHeight="1" spans="1:5">
+    <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9" t="str">
+      <c r="D8" s="5" t="str">
         <f>VLOOKUP(C8,__Sheet3!A:B,2,FALSE)</f>
         <v>Aoe</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A9" s="10" t="s">
+    <row r="9" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1796,101 +1844,105 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A10" s="8" t="s">
+    <row r="10" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f>VLOOKUP(C10,__Sheet3!A:B,2,FALSE)</f>
+        <v>Aoe</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="9" t="str">
-        <f>VLOOKUP(C10,__Sheet3!A:B,2,FALSE)</f>
-        <v>Dot</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A11" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="5" t="str">
         <f>VLOOKUP(C11,__Sheet3!A:B,2,FALSE)</f>
         <v>Dot</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A12" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f>VLOOKUP(C12,__Sheet3!A:B,2,FALSE)</f>
+        <v>Dot</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="9" t="str">
-        <f>VLOOKUP(C12,__Sheet3!A:B,2,FALSE)</f>
-        <v>Growth</v>
-      </c>
-      <c r="E12" s="9" t="s">
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A13" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A13" s="10" t="s">
+      <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4" t="str">
         <f>VLOOKUP(C13,__Sheet3!A:B,2,FALSE)</f>
-        <v>Surround</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" ht="18.5" customHeight="1" spans="1:5">
+        <v>Dot</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f>VLOOKUP(C14,__Sheet3!A:B,2,FALSE)</f>
+        <v>Growth</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="9" t="s">
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="9" t="str">
-        <f>VLOOKUP(C14,__Sheet3!A:B,2,FALSE)</f>
-        <v>Surround</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A15" s="10" t="s">
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D15" s="4" t="str">
         <f>VLOOKUP(C15,__Sheet3!A:B,2,FALSE)</f>
@@ -1898,378 +1950,551 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" ht="18.5" customHeight="1" spans="1:5">
+    <row r="16" ht="22.5" customHeight="1" spans="1:5">
       <c r="A16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="9" t="str">
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="5" t="str">
         <f>VLOOKUP(C16,__Sheet3!A:B,2,FALSE)</f>
         <v>Surround</v>
       </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A17" s="10" t="s">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4" t="str">
         <f>VLOOKUP(C17,__Sheet3!A:B,2,FALSE)</f>
-        <v>Ring</v>
-      </c>
-      <c r="E17" s="4" t="s">
+        <v>Surround</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f>VLOOKUP(C18,__Sheet3!A:B,2,FALSE)</f>
+        <v>Surround</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="9" t="str">
-        <f>VLOOKUP(C18,__Sheet3!A:B,2,FALSE)</f>
-        <v>Ring</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="C19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <f>VLOOKUP(C19,__Sheet3!A:B,2,FALSE)</f>
+        <v>Surround</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A19" s="10" t="s">
+      <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="4" t="str">
-        <f>VLOOKUP(C19,__Sheet3!A:B,2,FALSE)</f>
-        <v>Ring</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="9" t="str">
+      <c r="C20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4" t="str">
         <f>VLOOKUP(C20,__Sheet3!A:B,2,FALSE)</f>
         <v>Ring</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A21" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="4" t="str">
+      <c r="C21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="5" t="str">
         <f>VLOOKUP(C21,__Sheet3!A:B,2,FALSE)</f>
         <v>Ring</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A22" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>VLOOKUP(C22,__Sheet3!A:B,2,FALSE)</f>
+        <v>Ring</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="9" t="s">
+    </row>
+    <row r="23" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f>VLOOKUP(C23,__Sheet3!A:B,2,FALSE)</f>
+        <v>Ring</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="9" t="str">
-        <f>VLOOKUP(C22,__Sheet3!A:B,2,FALSE)</f>
+    </row>
+    <row r="24" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f>VLOOKUP(C24,__Sheet3!A:B,2,FALSE)</f>
+        <v>Ring</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <f>VLOOKUP(C25,__Sheet3!A:B,2,FALSE)</f>
         <v>Bounce</v>
       </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A23" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="4" t="str">
-        <f>VLOOKUP(C23,__Sheet3!A:B,2,FALSE)</f>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f>VLOOKUP(C26,__Sheet3!A:B,2,FALSE)</f>
         <v>Bounce</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="9" t="str">
-        <f>VLOOKUP(C24,__Sheet3!A:B,2,FALSE)</f>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="5" t="str">
+        <f>VLOOKUP(C27,__Sheet3!A:B,2,FALSE)</f>
         <v>Bounce</v>
       </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A25" s="10" t="s">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="4" t="str">
-        <f>VLOOKUP(C25,__Sheet3!A:B,2,FALSE)</f>
-        <v>Targeting</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A26" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="9" t="str">
-        <f>VLOOKUP(C26,__Sheet3!A:B,2,FALSE)</f>
-        <v>Resource</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A27" s="10" t="s">
+      <c r="D28" s="5" t="str">
+        <f>VLOOKUP(C28,__Sheet3!A:B,2,FALSE)</f>
+        <v>Bounce</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A29" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="4" t="str">
-        <f>VLOOKUP(C27,__Sheet3!A:B,2,FALSE)</f>
-        <v>Orb</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="9" t="str">
-        <f>VLOOKUP(C28,__Sheet3!A:B,2,FALSE)</f>
-        <v>Orb</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A29" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D29" s="4" t="str">
         <f>VLOOKUP(C29,__Sheet3!A:B,2,FALSE)</f>
-        <v>Summon</v>
+        <v>Targeting</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A30" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="9" t="str">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="4" t="str">
         <f>VLOOKUP(C30,__Sheet3!A:B,2,FALSE)</f>
-        <v>Summon</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A31" s="10" t="s">
-        <v>84</v>
+        <v>Targeting</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A31" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D31" s="4" t="str">
         <f>VLOOKUP(C31,__Sheet3!A:B,2,FALSE)</f>
-        <v>Summon</v>
+        <v>Targeting</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A32" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="9" t="str">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="4" t="str">
         <f>VLOOKUP(C32,__Sheet3!A:B,2,FALSE)</f>
-        <v>Growth</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A33" s="10" t="s">
-        <v>89</v>
+        <v>Targeting</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A33" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D33" s="4" t="str">
         <f>VLOOKUP(C33,__Sheet3!A:B,2,FALSE)</f>
-        <v>Buff</v>
+        <v>Targeting</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" ht="18.5" customHeight="1" spans="1:5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" ht="22.5" customHeight="1" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="9" t="str">
+        <v>81</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="5" t="str">
         <f>VLOOKUP(C34,__Sheet3!A:B,2,FALSE)</f>
-        <v>All</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A35" s="10" t="s">
-        <v>95</v>
+        <v>Resource</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A35" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D35" s="4" t="str">
         <f>VLOOKUP(C35,__Sheet3!A:B,2,FALSE)</f>
+        <v>Orb</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A36" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="5" t="str">
+        <f>VLOOKUP(C36,__Sheet3!A:B,2,FALSE)</f>
+        <v>Orb</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A37" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="5" t="str">
+        <f>VLOOKUP(C37,__Sheet3!A:B,2,FALSE)</f>
+        <v>Orb</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A38" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <f>VLOOKUP(C38,__Sheet3!A:B,2,FALSE)</f>
+        <v>Summon</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="5" t="str">
+        <f>VLOOKUP(C39,__Sheet3!A:B,2,FALSE)</f>
+        <v>Summon</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A40" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="4" t="str">
+        <f>VLOOKUP(C40,__Sheet3!A:B,2,FALSE)</f>
+        <v>Summon</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A41" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="4" t="str">
+        <f>VLOOKUP(C41,__Sheet3!A:B,2,FALSE)</f>
+        <v>Summon</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A42" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="5" t="str">
+        <f>VLOOKUP(C42,__Sheet3!A:B,2,FALSE)</f>
+        <v>Growth</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A43" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="4" t="str">
+        <f>VLOOKUP(C43,__Sheet3!A:B,2,FALSE)</f>
+        <v>Buff</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A44" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="5" t="str">
+        <f>VLOOKUP(C44,__Sheet3!A:B,2,FALSE)</f>
         <v>All</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" ht="18.5" customHeight="1" spans="1:5">
-      <c r="A36" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="14" t="str">
-        <f>VLOOKUP(C36,__Sheet3!A:B,2,FALSE)</f>
+      <c r="E44" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A45" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="4" t="str">
+        <f>VLOOKUP(C45,__Sheet3!A:B,2,FALSE)</f>
         <v>All</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
+      <c r="E45" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A46" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="11" t="str">
+        <f>VLOOKUP(C46,__Sheet3!A:B,2,FALSE)</f>
+        <v>All</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25"/>
   </sheetData>
-  <autoFilter ref="C1:C37">
+  <autoFilter ref="C1:C47">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2281,10 +2506,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D40"/>
+  <dimension ref="A2:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C35"/>
+      <selection activeCell="C2" sqref="C2:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2349,128 +2574,128 @@
     <row r="7" ht="16.5" spans="1:4">
       <c r="A7" t="str">
         <f>special_keyvalue!A8</f>
-        <v>skv_aoe_multiple</v>
+        <v>skv_aoe_chance</v>
       </c>
       <c r="C7" t="str">
         <f>"|"""&amp;special_keyvalue!A8&amp;""""</f>
-        <v>|"skv_aoe_multiple"</v>
+        <v>|"skv_aoe_chance"</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" ht="16.5" spans="1:4">
       <c r="A8" t="str">
         <f>special_keyvalue!A9</f>
-        <v>skv_aoe_dmg</v>
+        <v>skv_aoe_correct</v>
       </c>
       <c r="C8" t="str">
         <f>"|"""&amp;special_keyvalue!A9&amp;""""</f>
-        <v>|"skv_aoe_dmg"</v>
+        <v>|"skv_aoe_correct"</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" ht="16.5" spans="1:4">
       <c r="A9" t="str">
         <f>special_keyvalue!A10</f>
-        <v>skv_dot_duration</v>
+        <v>skv_aoe_dmg</v>
       </c>
       <c r="C9" t="str">
         <f>"|"""&amp;special_keyvalue!A10&amp;""""</f>
-        <v>|"skv_dot_duration"</v>
+        <v>|"skv_aoe_dmg"</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" ht="16.5" spans="1:4">
       <c r="A10" t="str">
         <f>special_keyvalue!A11</f>
-        <v>skv_dot_interval</v>
+        <v>skv_dot_duration</v>
       </c>
       <c r="C10" t="str">
         <f>"|"""&amp;special_keyvalue!A11&amp;""""</f>
-        <v>|"skv_dot_interval"</v>
+        <v>|"skv_dot_duration"</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" ht="16.5" spans="1:4">
       <c r="A11" t="str">
         <f>special_keyvalue!A12</f>
-        <v>skv_grow_value</v>
+        <v>skv_dot_interval</v>
       </c>
       <c r="C11" t="str">
         <f>"|"""&amp;special_keyvalue!A12&amp;""""</f>
-        <v>|"skv_grow_value"</v>
+        <v>|"skv_dot_interval"</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" ht="16.5" spans="1:4">
       <c r="A12" t="str">
         <f>special_keyvalue!A13</f>
-        <v>skv_surround_speed</v>
+        <v>skv_dot_dmg</v>
       </c>
       <c r="C12" t="str">
         <f>"|"""&amp;special_keyvalue!A13&amp;""""</f>
-        <v>|"skv_surround_speed"</v>
+        <v>|"skv_dot_dmg"</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" ht="16.5" spans="1:4">
       <c r="A13" t="str">
         <f>special_keyvalue!A14</f>
-        <v>skv_surround_dmg</v>
+        <v>skv_grow_value</v>
       </c>
       <c r="C13" t="str">
         <f>"|"""&amp;special_keyvalue!A14&amp;""""</f>
-        <v>|"skv_surround_dmg"</v>
+        <v>|"skv_grow_value"</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="str">
         <f>special_keyvalue!A15</f>
-        <v>skv_surround_count</v>
+        <v>skv_surround_speed</v>
       </c>
       <c r="C14" t="str">
         <f>"|"""&amp;special_keyvalue!A15&amp;""""</f>
-        <v>|"skv_surround_count"</v>
+        <v>|"skv_surround_speed"</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="str">
         <f>special_keyvalue!A16</f>
-        <v>skv_surround_distance</v>
+        <v>skv_surround_dmg</v>
       </c>
       <c r="C15" t="str">
         <f>"|"""&amp;special_keyvalue!A16&amp;""""</f>
-        <v>|"skv_surround_distance"</v>
+        <v>|"skv_surround_dmg"</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="str">
         <f>special_keyvalue!A17</f>
-        <v>skv_ring_width</v>
+        <v>skv_surround_count</v>
       </c>
       <c r="C16" t="str">
         <f>"|"""&amp;special_keyvalue!A17&amp;""""</f>
-        <v>|"skv_ring_width"</v>
+        <v>|"skv_surround_count"</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="str">
         <f>special_keyvalue!A18</f>
-        <v>skv_ring_interval</v>
+        <v>skv_surround_distance</v>
       </c>
       <c r="C17" t="str">
         <f>"|"""&amp;special_keyvalue!A18&amp;""""</f>
-        <v>|"skv_ring_interval"</v>
+        <v>|"skv_surround_distance"</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="str">
         <f>special_keyvalue!A19</f>
-        <v>skv_ring_range</v>
+        <v>skv_surround_dmg</v>
       </c>
       <c r="C18" t="str">
         <f>"|"""&amp;special_keyvalue!A19&amp;""""</f>
-        <v>|"skv_ring_range"</v>
+        <v>|"skv_surround_dmg"</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2486,210 +2711,330 @@
     <row r="20" spans="1:3">
       <c r="A20" t="str">
         <f>special_keyvalue!A21</f>
-        <v>skv_ring_dmg</v>
+        <v>skv_ring_interval</v>
       </c>
       <c r="C20" t="str">
         <f>"|"""&amp;special_keyvalue!A21&amp;""""</f>
-        <v>|"skv_ring_dmg"</v>
+        <v>|"skv_ring_interval"</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="str">
         <f>special_keyvalue!A22</f>
-        <v>skv_bounce_count</v>
+        <v>skv_ring_range</v>
       </c>
       <c r="C21" t="str">
         <f>"|"""&amp;special_keyvalue!A22&amp;""""</f>
-        <v>|"skv_bounce_count"</v>
+        <v>|"skv_ring_range"</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="str">
         <f>special_keyvalue!A23</f>
-        <v>skv_bounce_increase</v>
+        <v>skv_ring_width</v>
       </c>
       <c r="C22" t="str">
         <f>"|"""&amp;special_keyvalue!A23&amp;""""</f>
-        <v>|"skv_bounce_increase"</v>
+        <v>|"skv_ring_width"</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="str">
         <f>special_keyvalue!A24</f>
-        <v>skv_bounce_reduction</v>
+        <v>skv_ring_dmg</v>
       </c>
       <c r="C23" t="str">
         <f>"|"""&amp;special_keyvalue!A24&amp;""""</f>
-        <v>|"skv_bounce_reduction"</v>
+        <v>|"skv_ring_dmg"</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="str">
         <f>special_keyvalue!A25</f>
-        <v>skv_targeting_count</v>
+        <v>skv_bounce_count</v>
       </c>
       <c r="C24" t="str">
         <f>"|"""&amp;special_keyvalue!A25&amp;""""</f>
-        <v>|"skv_targeting_count"</v>
+        <v>|"skv_bounce_count"</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="str">
         <f>special_keyvalue!A26</f>
-        <v>skv_resource_income</v>
+        <v>skv_bounce_increase</v>
       </c>
       <c r="C25" t="str">
         <f>"|"""&amp;special_keyvalue!A26&amp;""""</f>
-        <v>|"skv_resource_income"</v>
+        <v>|"skv_bounce_increase"</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="str">
         <f>special_keyvalue!A27</f>
-        <v>skv_orb_chance</v>
+        <v>skv_bounce_reduction</v>
       </c>
       <c r="C26" t="str">
         <f>"|"""&amp;special_keyvalue!A27&amp;""""</f>
-        <v>|"skv_orb_chance"</v>
+        <v>|"skv_bounce_reduction"</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="str">
         <f>special_keyvalue!A28</f>
-        <v>skv_orb_required</v>
+        <v>skv_bounce_dmg</v>
       </c>
       <c r="C27" t="str">
         <f>"|"""&amp;special_keyvalue!A28&amp;""""</f>
-        <v>|"skv_orb_required"</v>
+        <v>|"skv_bounce_dmg"</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="str">
         <f>special_keyvalue!A29</f>
-        <v>skv_summon_duration</v>
+        <v>skv_targeting_count</v>
       </c>
       <c r="C28" t="str">
         <f>"|"""&amp;special_keyvalue!A29&amp;""""</f>
-        <v>|"skv_summon_duration"</v>
+        <v>|"skv_targeting_count"</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="str">
         <f>special_keyvalue!A30</f>
-        <v>skv_summon_strength</v>
+        <v>skv_targeting_dmg</v>
       </c>
       <c r="C29" t="str">
         <f>"|"""&amp;special_keyvalue!A30&amp;""""</f>
-        <v>|"skv_summon_strength"</v>
+        <v>|"skv_targeting_dmg"</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="str">
         <f>special_keyvalue!A31</f>
-        <v>skv_summon_haste</v>
+        <v>skv_targeting_multiple1</v>
       </c>
       <c r="C30" t="str">
         <f>"|"""&amp;special_keyvalue!A31&amp;""""</f>
-        <v>|"skv_summon_haste"</v>
+        <v>|"skv_targeting_multiple1"</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="str">
         <f>special_keyvalue!A32</f>
-        <v>skv_growth_bonus</v>
+        <v>skv_targeting_multiple2</v>
       </c>
       <c r="C31" t="str">
         <f>"|"""&amp;special_keyvalue!A32&amp;""""</f>
-        <v>|"skv_growth_bonus"</v>
+        <v>|"skv_targeting_multiple2"</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="str">
         <f>special_keyvalue!A33</f>
-        <v>skv_buff_increase</v>
+        <v>skv_targeting_multiple3</v>
       </c>
       <c r="C32" t="str">
         <f>"|"""&amp;special_keyvalue!A33&amp;""""</f>
-        <v>|"skv_buff_increase"</v>
+        <v>|"skv_targeting_multiple3"</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="str">
         <f>special_keyvalue!A34</f>
-        <v>skv_all_haste</v>
+        <v>skv_resource_income</v>
       </c>
       <c r="C33" t="str">
         <f>"|"""&amp;special_keyvalue!A34&amp;""""</f>
-        <v>|"skv_all_haste"</v>
+        <v>|"skv_resource_income"</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="str">
         <f>special_keyvalue!A35</f>
-        <v>skv_all_dmg</v>
+        <v>skv_orb_chance</v>
       </c>
       <c r="C34" t="str">
         <f>"|"""&amp;special_keyvalue!A35&amp;""""</f>
-        <v>|"skv_all_dmg"</v>
+        <v>|"skv_orb_chance"</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="str">
         <f>special_keyvalue!A36</f>
-        <v>skv_all_manacost</v>
+        <v>skv_orb_required</v>
       </c>
       <c r="C35" t="str">
         <f>"|"""&amp;special_keyvalue!A36&amp;""""</f>
-        <v>|"skv_all_manacost"</v>
+        <v>|"skv_orb_required"</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36">
+      <c r="A36" t="str">
         <f>special_keyvalue!A37</f>
-        <v>0</v>
+        <v>skv_orb_dmg</v>
       </c>
       <c r="C36" t="str">
         <f>"|"""&amp;special_keyvalue!A37&amp;""""</f>
-        <v>|""</v>
+        <v>|"skv_orb_dmg"</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37">
+      <c r="A37" t="str">
         <f>special_keyvalue!A38</f>
-        <v>0</v>
+        <v>skv_summon_duration</v>
       </c>
       <c r="C37" t="str">
         <f>"|"""&amp;special_keyvalue!A38&amp;""""</f>
-        <v>|""</v>
+        <v>|"skv_summon_duration"</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38">
+      <c r="A38" t="str">
         <f>special_keyvalue!A39</f>
-        <v>0</v>
+        <v>skv_summon_strength</v>
       </c>
       <c r="C38" t="str">
         <f>"|"""&amp;special_keyvalue!A39&amp;""""</f>
+        <v>|"skv_summon_strength"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="str">
+        <f>special_keyvalue!A40</f>
+        <v>skv_summon_haste</v>
+      </c>
+      <c r="C39" t="str">
+        <f>"|"""&amp;special_keyvalue!A40&amp;""""</f>
+        <v>|"skv_summon_haste"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="str">
+        <f>special_keyvalue!A41</f>
+        <v>skv_summon_dmg</v>
+      </c>
+      <c r="C40" t="str">
+        <f>"|"""&amp;special_keyvalue!A41&amp;""""</f>
+        <v>|"skv_summon_dmg"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="str">
+        <f>special_keyvalue!A42</f>
+        <v>skv_growth_bonus</v>
+      </c>
+      <c r="C41" t="str">
+        <f>"|"""&amp;special_keyvalue!A42&amp;""""</f>
+        <v>|"skv_growth_bonus"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="str">
+        <f>special_keyvalue!A43</f>
+        <v>skv_buff_increase</v>
+      </c>
+      <c r="C42" t="str">
+        <f>"|"""&amp;special_keyvalue!A43&amp;""""</f>
+        <v>|"skv_buff_increase"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="str">
+        <f>special_keyvalue!A44</f>
+        <v>skv_all_haste</v>
+      </c>
+      <c r="C43" t="str">
+        <f>"|"""&amp;special_keyvalue!A44&amp;""""</f>
+        <v>|"skv_all_haste"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="str">
+        <f>special_keyvalue!A45</f>
+        <v>skv_all_dmg</v>
+      </c>
+      <c r="C44" t="str">
+        <f>"|"""&amp;special_keyvalue!A45&amp;""""</f>
+        <v>|"skv_all_dmg"</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="str">
+        <f>special_keyvalue!A46</f>
+        <v>skv_all_manacost</v>
+      </c>
+      <c r="C45" t="str">
+        <f>"|"""&amp;special_keyvalue!A46&amp;""""</f>
+        <v>|"skv_all_manacost"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <f>special_keyvalue!A47</f>
+        <v>0</v>
+      </c>
+      <c r="C46" t="str">
+        <f>"|"""&amp;special_keyvalue!A47&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <f>special_keyvalue!A40</f>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <f>special_keyvalue!A48</f>
         <v>0</v>
       </c>
-      <c r="C39" t="str">
-        <f>"|"""&amp;special_keyvalue!A43&amp;""""</f>
+      <c r="C47" t="str">
+        <f>"|"""&amp;special_keyvalue!A48&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <f>special_keyvalue!A41</f>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <f>special_keyvalue!A49</f>
         <v>0</v>
       </c>
-      <c r="C40" t="str">
-        <f>"|"""&amp;special_keyvalue!A44&amp;""""</f>
+      <c r="C48" t="str">
+        <f>"|"""&amp;special_keyvalue!A49&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <f>special_keyvalue!A50</f>
+        <v>0</v>
+      </c>
+      <c r="C49" t="str">
+        <f>"|"""&amp;special_keyvalue!A50&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <f>special_keyvalue!A51</f>
+        <v>0</v>
+      </c>
+      <c r="C50" t="str">
+        <f>"|"""&amp;special_keyvalue!A51&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <f>special_keyvalue!A52</f>
+        <v>0</v>
+      </c>
+      <c r="C51" t="str">
+        <f>"|"""&amp;special_keyvalue!A52&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <f>special_keyvalue!A53</f>
+        <v>0</v>
+      </c>
+      <c r="C52" t="str">
+        <f>"|"""&amp;special_keyvalue!A53&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -2704,8 +3049,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2715,13 +3060,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2729,169 +3074,169 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/special_keyvalue.xlsx
+++ b/excels/config/game/special_keyvalue.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="special_keyvalue" sheetId="1" r:id="rId1"/>
     <sheet name="__Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="__Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="_special_keyvalue2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">special_keyvalue!$C$1:$C$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">special_keyvalue!$A$1:$E$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="179">
   <si>
     <t>index  下标</t>
   </si>
@@ -76,7 +77,7 @@
     <t>弹道额外距离</t>
   </si>
   <si>
-    <t>skv_missile_dmg</t>
+    <t>skv_missile_d_final</t>
   </si>
   <si>
     <t>弹道型伤害</t>
@@ -109,7 +110,7 @@
     <t>范围害修正</t>
   </si>
   <si>
-    <t>skv_aoe_dmg</t>
+    <t>skv_aoe_d_final</t>
   </si>
   <si>
     <t>范围害加成</t>
@@ -136,7 +137,7 @@
     <t>持续周期%</t>
   </si>
   <si>
-    <t>skv_dot_dmg</t>
+    <t>skv_dot_d_final</t>
   </si>
   <si>
     <t>持续型伤害</t>
@@ -160,7 +161,7 @@
     <t>环绕型</t>
   </si>
   <si>
-    <t>skv_surround_dmg</t>
+    <t>skv_surround_d_final</t>
   </si>
   <si>
     <t>环绕伤害</t>
@@ -211,7 +212,7 @@
     <t>线圈判定宽度</t>
   </si>
   <si>
-    <t>skv_ring_dmg</t>
+    <t>skv_ring_d_final</t>
   </si>
   <si>
     <t>线圈伤害</t>
@@ -238,7 +239,7 @@
     <t>衰减效率</t>
   </si>
   <si>
-    <t>skv_bounce_dmg</t>
+    <t>skv_bounce_d_final</t>
   </si>
   <si>
     <t>弹射型伤害</t>
@@ -310,7 +311,7 @@
     <t>法球次数</t>
   </si>
   <si>
-    <t>skv_orb_dmg</t>
+    <t>skv_orb_d_final</t>
   </si>
   <si>
     <t>法球型伤害</t>
@@ -337,16 +338,13 @@
     <t>召唤物强度（攻击力、生命值、攻击速度）</t>
   </si>
   <si>
-    <t>skv_summon_haste</t>
-  </si>
-  <si>
-    <t>召唤类急速</t>
-  </si>
-  <si>
-    <t>直接缩减冷却</t>
-  </si>
-  <si>
-    <t>skv_summon_dmg</t>
+    <t>skv_summon_cooldown</t>
+  </si>
+  <si>
+    <t>召唤类冷却</t>
+  </si>
+  <si>
+    <t>skv_summon_d_final</t>
   </si>
   <si>
     <t>召唤型伤害</t>
@@ -367,16 +365,16 @@
     <t>增益型</t>
   </si>
   <si>
-    <t>增益效率</t>
-  </si>
-  <si>
     <t>skv_all_haste</t>
   </si>
   <si>
+    <t>技能急速</t>
+  </si>
+  <si>
     <t>通用型</t>
   </si>
   <si>
-    <t>skv_all_dmg</t>
+    <t>skv_all_ability_power</t>
   </si>
   <si>
     <t>技能伤害提高</t>
@@ -431,6 +429,147 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>KVS</t>
+  </si>
+  <si>
+    <t>词条类型1</t>
+  </si>
+  <si>
+    <t>词条类型2</t>
+  </si>
+  <si>
+    <t>词条类型3</t>
+  </si>
+  <si>
+    <t>词条类型4</t>
+  </si>
+  <si>
+    <t>词条类型5</t>
+  </si>
+  <si>
+    <t>KVE</t>
+  </si>
+  <si>
+    <t>AbilityValues[{]</t>
+  </si>
+  <si>
+    <t>[}]</t>
+  </si>
+  <si>
+    <t>skv_summon_duration 1</t>
+  </si>
+  <si>
+    <t>skv_summon_power 1</t>
+  </si>
+  <si>
+    <t>skv_summon_cooldown 1</t>
+  </si>
+  <si>
+    <t>skv_summon_dmgf 1</t>
+  </si>
+  <si>
+    <t>skv_ring_dmgf 1</t>
+  </si>
+  <si>
+    <t>skv_ring_width 1</t>
+  </si>
+  <si>
+    <t>skv_ring_interval 1</t>
+  </si>
+  <si>
+    <t>skv_ring_range 1</t>
+  </si>
+  <si>
+    <t>skv_surround_speed 1</t>
+  </si>
+  <si>
+    <t>skv_surround_dmgf 1</t>
+  </si>
+  <si>
+    <t>skv_surround_count 1</t>
+  </si>
+  <si>
+    <t>skv_surround_distance 1</t>
+  </si>
+  <si>
+    <t>skv_aoe_radius 1</t>
+  </si>
+  <si>
+    <t>skv_aoe_chance 1</t>
+  </si>
+  <si>
+    <t>skv_aoe_dmgb 1</t>
+  </si>
+  <si>
+    <t>skv_bounce_reduction 1</t>
+  </si>
+  <si>
+    <t>skv_bounce_count 1</t>
+  </si>
+  <si>
+    <t>skv_bounce_increase 1</t>
+  </si>
+  <si>
+    <t>skv_missile_speed 1</t>
+  </si>
+  <si>
+    <t>skv_missile_count 1</t>
+  </si>
+  <si>
+    <t>skv_missile_distance 1</t>
+  </si>
+  <si>
+    <t>skv_missile_dmgf 1</t>
+  </si>
+  <si>
+    <t>skv_targeting_count 1</t>
+  </si>
+  <si>
+    <t>skv_targeting_dmg 1</t>
+  </si>
+  <si>
+    <t>skv_targeting_multiple1 1</t>
+  </si>
+  <si>
+    <t>skv_targeting_multiple2 1</t>
+  </si>
+  <si>
+    <t>skv_targeting_multiple3 1</t>
+  </si>
+  <si>
+    <t>skv_dot_duration 1</t>
+  </si>
+  <si>
+    <t>skv_dot_interval 1</t>
+  </si>
+  <si>
+    <t>skv_dot_dmgf 1</t>
+  </si>
+  <si>
+    <t>skv_orb_chance 1</t>
+  </si>
+  <si>
+    <t>skv_orb_reqcount 1</t>
+  </si>
+  <si>
+    <t>skv_resource_income 1</t>
+  </si>
+  <si>
+    <t>skv_growth_bonus 1</t>
+  </si>
+  <si>
+    <t>skv_buff_increase 1</t>
+  </si>
+  <si>
+    <t>skv_all_haste 1</t>
+  </si>
+  <si>
+    <t>skv_all_dmg_ability 1</t>
+  </si>
+  <si>
+    <t>skv_all_manacost 1</t>
   </si>
 </sst>
 </file>
@@ -443,8 +582,47 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="28">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF08090C"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF08090C"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -455,12 +633,6 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -830,6 +1002,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -890,21 +1077,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1051,171 +1223,300 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1270,7 +1571,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="40">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1411,16 +1712,911 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.66"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.66"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.66"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.66"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.6"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFB6C7EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1" tint="0.8"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFFFF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <u val="none"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F3BA371A-EB90-47D8-BBC4-44DE96061581}">
+  <tableStyles count="6" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F129A146-05D7-4E7C-AC05-A5117E8A87F3}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{D1885762-C961-4BC4-A496-B19DE3DFD139}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{1B4277B6-55B2-422A-A2D2-F32A299306AA}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
+    </tableStyle>
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{872EA928-B6E8-420A-BE04-12A6320CF933}">
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="firstColumn" dxfId="12"/>
+      <tableStyleElement type="lastColumn" dxfId="11"/>
+      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="8"/>
+      <tableStyleElement type="firstTotalCell" dxfId="7"/>
+      <tableStyleElement type="lastTotalCell" dxfId="6"/>
+    </tableStyle>
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{1CF459DE-C80E-41FF-BA68-8D9BAC4283A0}">
+      <tableStyleElement type="wholeTable" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="totalRow" dxfId="25"/>
+      <tableStyleElement type="firstColumn" dxfId="24"/>
+      <tableStyleElement type="lastColumn" dxfId="23"/>
+      <tableStyleElement type="secondRowStripe" dxfId="22"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="21"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="20"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="19"/>
+      <tableStyleElement type="lastHeaderCell" dxfId="18"/>
+      <tableStyleElement type="firstTotalCell" dxfId="17"/>
+      <tableStyleElement type="lastTotalCell" dxfId="16"/>
+    </tableStyle>
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{622DE84E-E1CF-4279-91C8-E301BBB8571B}">
+      <tableStyleElement type="wholeTable" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="totalRow" dxfId="32"/>
+      <tableStyleElement type="firstColumn" dxfId="31"/>
+      <tableStyleElement type="lastColumn" dxfId="30"/>
+      <tableStyleElement type="firstRowStripe" dxfId="29"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
+    </tableStyle>
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{E876C3F1-8F75-4F54-B0E5-31BB21410E09}">
+      <tableStyleElement type="wholeTable" dxfId="39"/>
+      <tableStyleElement type="headerRow" dxfId="38"/>
+      <tableStyleElement type="totalRow" dxfId="37"/>
+      <tableStyleElement type="firstColumn" dxfId="36"/>
+      <tableStyleElement type="lastColumn" dxfId="35"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1681,10 +2877,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1697,804 +2893,789 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="51" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="48" t="str">
         <f>VLOOKUP(C3,__Sheet3!A:B,2,FALSE)</f>
         <v>Missile</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="49" t="str">
         <f>VLOOKUP(C4,__Sheet3!A:B,2,FALSE)</f>
         <v>Missile</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="48" t="str">
         <f>VLOOKUP(C5,__Sheet3!A:B,2,FALSE)</f>
         <v>Missile</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="str">
+      <c r="D6" s="49" t="str">
         <f>VLOOKUP(C6,__Sheet3!A:B,2,FALSE)</f>
         <v>Missile</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="48" t="str">
         <f>VLOOKUP(C7,__Sheet3!A:B,2,FALSE)</f>
         <v>Aoe</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="48" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="str">
+      <c r="D8" s="49" t="str">
         <f>VLOOKUP(C8,__Sheet3!A:B,2,FALSE)</f>
         <v>Aoe</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="49" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="48" t="str">
         <f>VLOOKUP(C9,__Sheet3!A:B,2,FALSE)</f>
         <v>Aoe</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="48" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="48" t="str">
         <f>VLOOKUP(C10,__Sheet3!A:B,2,FALSE)</f>
         <v>Aoe</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="48" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="5" t="str">
+      <c r="D11" s="49" t="str">
         <f>VLOOKUP(C11,__Sheet3!A:B,2,FALSE)</f>
         <v>Dot</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="48" t="str">
         <f>VLOOKUP(C12,__Sheet3!A:B,2,FALSE)</f>
         <v>Dot</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="48" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="48" t="str">
         <f>VLOOKUP(C13,__Sheet3!A:B,2,FALSE)</f>
         <v>Dot</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="48" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="5" t="str">
+      <c r="D14" s="49" t="str">
         <f>VLOOKUP(C14,__Sheet3!A:B,2,FALSE)</f>
         <v>Growth</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="49" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="48" t="str">
         <f>VLOOKUP(C15,__Sheet3!A:B,2,FALSE)</f>
         <v>Surround</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="48"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="5" t="str">
+      <c r="D16" s="49" t="str">
         <f>VLOOKUP(C16,__Sheet3!A:B,2,FALSE)</f>
         <v>Surround</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="48" t="str">
         <f>VLOOKUP(C17,__Sheet3!A:B,2,FALSE)</f>
         <v>Surround</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="5" t="str">
+      <c r="D18" s="49" t="str">
         <f>VLOOKUP(C18,__Sheet3!A:B,2,FALSE)</f>
         <v>Surround</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="5" t="str">
+      <c r="D19" s="49" t="str">
         <f>VLOOKUP(C19,__Sheet3!A:B,2,FALSE)</f>
         <v>Surround</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="48" t="str">
         <f>VLOOKUP(C20,__Sheet3!A:B,2,FALSE)</f>
         <v>Ring</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="48" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="5" t="str">
+      <c r="D21" s="49" t="str">
         <f>VLOOKUP(C21,__Sheet3!A:B,2,FALSE)</f>
         <v>Ring</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="49" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D22" s="48" t="str">
         <f>VLOOKUP(C22,__Sheet3!A:B,2,FALSE)</f>
         <v>Ring</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="48" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="5" t="str">
+      <c r="D23" s="49" t="str">
         <f>VLOOKUP(C23,__Sheet3!A:B,2,FALSE)</f>
         <v>Ring</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="D24" s="48" t="str">
         <f>VLOOKUP(C24,__Sheet3!A:B,2,FALSE)</f>
         <v>Ring</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="48" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="5" t="str">
+      <c r="D25" s="49" t="str">
         <f>VLOOKUP(C25,__Sheet3!A:B,2,FALSE)</f>
         <v>Bounce</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="D26" s="48" t="str">
         <f>VLOOKUP(C26,__Sheet3!A:B,2,FALSE)</f>
         <v>Bounce</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="48"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="5" t="str">
+      <c r="D27" s="49" t="str">
         <f>VLOOKUP(C27,__Sheet3!A:B,2,FALSE)</f>
         <v>Bounce</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="49"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="5" t="str">
+      <c r="D28" s="49" t="str">
         <f>VLOOKUP(C28,__Sheet3!A:B,2,FALSE)</f>
         <v>Bounce</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="49"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="D29" s="48" t="str">
         <f>VLOOKUP(C29,__Sheet3!A:B,2,FALSE)</f>
         <v>Targeting</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="4" t="str">
+      <c r="D30" s="48" t="str">
         <f>VLOOKUP(C30,__Sheet3!A:B,2,FALSE)</f>
         <v>Targeting</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="4" t="str">
+      <c r="D31" s="48" t="str">
         <f>VLOOKUP(C31,__Sheet3!A:B,2,FALSE)</f>
         <v>Targeting</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="4" t="str">
+      <c r="D32" s="48" t="str">
         <f>VLOOKUP(C32,__Sheet3!A:B,2,FALSE)</f>
         <v>Targeting</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="4" t="str">
+      <c r="D33" s="48" t="str">
         <f>VLOOKUP(C33,__Sheet3!A:B,2,FALSE)</f>
         <v>Targeting</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="5" t="str">
+      <c r="D34" s="49" t="str">
         <f>VLOOKUP(C34,__Sheet3!A:B,2,FALSE)</f>
         <v>Resource</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="49" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="4" t="str">
+      <c r="D35" s="48" t="str">
         <f>VLOOKUP(C35,__Sheet3!A:B,2,FALSE)</f>
         <v>Orb</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="48" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="5" t="str">
+      <c r="D36" s="49" t="str">
         <f>VLOOKUP(C36,__Sheet3!A:B,2,FALSE)</f>
         <v>Orb</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="49" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="37" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="5" t="str">
+      <c r="D37" s="49" t="str">
         <f>VLOOKUP(C37,__Sheet3!A:B,2,FALSE)</f>
         <v>Orb</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="49" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D38" s="48" t="str">
         <f>VLOOKUP(C38,__Sheet3!A:B,2,FALSE)</f>
         <v>Summon</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="48" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="39" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="5" t="str">
+      <c r="D39" s="49" t="str">
         <f>VLOOKUP(C39,__Sheet3!A:B,2,FALSE)</f>
         <v>Summon</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="49" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="4" t="str">
+      <c r="D40" s="48" t="str">
         <f>VLOOKUP(C40,__Sheet3!A:B,2,FALSE)</f>
         <v>Summon</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="48"/>
+    </row>
+    <row r="41" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A41" s="34" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="41" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A41" s="9" t="s">
+      <c r="B41" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="4" t="str">
+      <c r="D41" s="48" t="str">
         <f>VLOOKUP(C41,__Sheet3!A:B,2,FALSE)</f>
         <v>Summon</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="E41" s="48"/>
     </row>
     <row r="42" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="5" t="str">
+      <c r="D42" s="49" t="str">
         <f>VLOOKUP(C42,__Sheet3!A:B,2,FALSE)</f>
         <v>Growth</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="E42" s="49"/>
     </row>
     <row r="43" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="4" t="str">
+      <c r="D43" s="48" t="str">
         <f>VLOOKUP(C43,__Sheet3!A:B,2,FALSE)</f>
         <v>Buff</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="48"/>
+    </row>
+    <row r="44" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A44" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="49" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="44" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A44" s="8" t="s">
+      <c r="C44" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="5" t="str">
+      <c r="D44" s="49" t="str">
         <f>VLOOKUP(C44,__Sheet3!A:B,2,FALSE)</f>
         <v>All</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="E44" s="49"/>
     </row>
     <row r="45" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="4" t="str">
+      <c r="C45" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="48" t="str">
         <f>VLOOKUP(C45,__Sheet3!A:B,2,FALSE)</f>
         <v>All</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="E45" s="48"/>
     </row>
     <row r="46" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="11" t="str">
+      <c r="C46" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="54" t="str">
         <f>VLOOKUP(C46,__Sheet3!A:B,2,FALSE)</f>
         <v>All</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25"/>
+      <c r="E46" s="54"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C47">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E46" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2552,13 +3733,13 @@
     <row r="5" ht="16.5" spans="1:4">
       <c r="A5" t="str">
         <f>special_keyvalue!A6</f>
-        <v>skv_missile_dmg</v>
+        <v>skv_missile_d_final</v>
       </c>
       <c r="C5" t="str">
         <f>"|"""&amp;special_keyvalue!A6&amp;""""</f>
-        <v>|"skv_missile_dmg"</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>|"skv_missile_d_final"</v>
+      </c>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" ht="16.5" spans="1:4">
       <c r="A6" t="str">
@@ -2569,7 +3750,7 @@
         <f>"|"""&amp;special_keyvalue!A7&amp;""""</f>
         <v>|"skv_aoe_radius"</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="49"/>
     </row>
     <row r="7" ht="16.5" spans="1:4">
       <c r="A7" t="str">
@@ -2580,7 +3761,7 @@
         <f>"|"""&amp;special_keyvalue!A8&amp;""""</f>
         <v>|"skv_aoe_chance"</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="48"/>
     </row>
     <row r="8" ht="16.5" spans="1:4">
       <c r="A8" t="str">
@@ -2591,18 +3772,18 @@
         <f>"|"""&amp;special_keyvalue!A9&amp;""""</f>
         <v>|"skv_aoe_correct"</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="49"/>
     </row>
     <row r="9" ht="16.5" spans="1:4">
       <c r="A9" t="str">
         <f>special_keyvalue!A10</f>
-        <v>skv_aoe_dmg</v>
+        <v>skv_aoe_d_final</v>
       </c>
       <c r="C9" t="str">
         <f>"|"""&amp;special_keyvalue!A10&amp;""""</f>
-        <v>|"skv_aoe_dmg"</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>|"skv_aoe_d_final"</v>
+      </c>
+      <c r="D9" s="48"/>
     </row>
     <row r="10" ht="16.5" spans="1:4">
       <c r="A10" t="str">
@@ -2613,7 +3794,7 @@
         <f>"|"""&amp;special_keyvalue!A11&amp;""""</f>
         <v>|"skv_dot_duration"</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="49"/>
     </row>
     <row r="11" ht="16.5" spans="1:4">
       <c r="A11" t="str">
@@ -2624,18 +3805,18 @@
         <f>"|"""&amp;special_keyvalue!A12&amp;""""</f>
         <v>|"skv_dot_interval"</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="48"/>
     </row>
     <row r="12" ht="16.5" spans="1:4">
       <c r="A12" t="str">
         <f>special_keyvalue!A13</f>
-        <v>skv_dot_dmg</v>
+        <v>skv_dot_d_final</v>
       </c>
       <c r="C12" t="str">
         <f>"|"""&amp;special_keyvalue!A13&amp;""""</f>
-        <v>|"skv_dot_dmg"</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>|"skv_dot_d_final"</v>
+      </c>
+      <c r="D12" s="49"/>
     </row>
     <row r="13" ht="16.5" spans="1:4">
       <c r="A13" t="str">
@@ -2646,7 +3827,7 @@
         <f>"|"""&amp;special_keyvalue!A14&amp;""""</f>
         <v>|"skv_grow_value"</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="48"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="str">
@@ -2661,11 +3842,11 @@
     <row r="15" spans="1:3">
       <c r="A15" t="str">
         <f>special_keyvalue!A16</f>
-        <v>skv_surround_dmg</v>
+        <v>skv_surround_d_final</v>
       </c>
       <c r="C15" t="str">
         <f>"|"""&amp;special_keyvalue!A16&amp;""""</f>
-        <v>|"skv_surround_dmg"</v>
+        <v>|"skv_surround_d_final"</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2691,11 +3872,11 @@
     <row r="18" spans="1:3">
       <c r="A18" t="str">
         <f>special_keyvalue!A19</f>
-        <v>skv_surround_dmg</v>
+        <v>skv_surround_d_final</v>
       </c>
       <c r="C18" t="str">
         <f>"|"""&amp;special_keyvalue!A19&amp;""""</f>
-        <v>|"skv_surround_dmg"</v>
+        <v>|"skv_surround_d_final"</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2741,11 +3922,11 @@
     <row r="23" spans="1:3">
       <c r="A23" t="str">
         <f>special_keyvalue!A24</f>
-        <v>skv_ring_dmg</v>
+        <v>skv_ring_d_final</v>
       </c>
       <c r="C23" t="str">
         <f>"|"""&amp;special_keyvalue!A24&amp;""""</f>
-        <v>|"skv_ring_dmg"</v>
+        <v>|"skv_ring_d_final"</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2781,11 +3962,11 @@
     <row r="27" spans="1:3">
       <c r="A27" t="str">
         <f>special_keyvalue!A28</f>
-        <v>skv_bounce_dmg</v>
+        <v>skv_bounce_d_final</v>
       </c>
       <c r="C27" t="str">
         <f>"|"""&amp;special_keyvalue!A28&amp;""""</f>
-        <v>|"skv_bounce_dmg"</v>
+        <v>|"skv_bounce_d_final"</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2871,11 +4052,11 @@
     <row r="36" spans="1:3">
       <c r="A36" t="str">
         <f>special_keyvalue!A37</f>
-        <v>skv_orb_dmg</v>
+        <v>skv_orb_d_final</v>
       </c>
       <c r="C36" t="str">
         <f>"|"""&amp;special_keyvalue!A37&amp;""""</f>
-        <v>|"skv_orb_dmg"</v>
+        <v>|"skv_orb_d_final"</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2901,21 +4082,21 @@
     <row r="39" spans="1:3">
       <c r="A39" t="str">
         <f>special_keyvalue!A40</f>
-        <v>skv_summon_haste</v>
+        <v>skv_summon_cooldown</v>
       </c>
       <c r="C39" t="str">
         <f>"|"""&amp;special_keyvalue!A40&amp;""""</f>
-        <v>|"skv_summon_haste"</v>
+        <v>|"skv_summon_cooldown"</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="str">
         <f>special_keyvalue!A41</f>
-        <v>skv_summon_dmg</v>
+        <v>skv_summon_d_final</v>
       </c>
       <c r="C40" t="str">
         <f>"|"""&amp;special_keyvalue!A41&amp;""""</f>
-        <v>|"skv_summon_dmg"</v>
+        <v>|"skv_summon_d_final"</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2951,11 +4132,11 @@
     <row r="44" spans="1:3">
       <c r="A44" t="str">
         <f>special_keyvalue!A45</f>
-        <v>skv_all_dmg</v>
+        <v>skv_all_ability_power</v>
       </c>
       <c r="C44" t="str">
         <f>"|"""&amp;special_keyvalue!A45&amp;""""</f>
-        <v>|"skv_all_dmg"</v>
+        <v>|"skv_all_ability_power"</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3049,194 +4230,194 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>118</v>
+      <c r="B1" s="46" t="s">
+        <v>117</v>
       </c>
       <c r="E1" t="s">
         <v>96</v>
       </c>
       <c r="F1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>118</v>
+      <c r="F4" s="46" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>124</v>
+      <c r="A5" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>123</v>
       </c>
       <c r="E5" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>120</v>
+      <c r="F6" s="46" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>119</v>
+      <c r="B7" s="46" t="s">
+        <v>118</v>
       </c>
       <c r="E7" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>129</v>
+      <c r="B9" s="46" t="s">
+        <v>128</v>
       </c>
       <c r="E9" t="s">
         <v>87</v>
       </c>
       <c r="F9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="46" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="46" t="s">
         <v>130</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E10" t="s">
         <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>121</v>
+      <c r="B11" s="46" t="s">
+        <v>120</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>125</v>
+      <c r="B12" s="46" t="s">
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>127</v>
+      <c r="B13" s="46" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3248,4 +4429,389 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.175" customWidth="1"/>
+    <col min="2" max="2" width="10.5083333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="31.375" customWidth="1"/>
+    <col min="5" max="5" width="24.675" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="23.5083333333333" customWidth="1"/>
+    <col min="9" max="9" width="3.625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8">
+        <v>5</v>
+      </c>
+      <c r="I2" s="42">
+        <v>6</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:10">
+      <c r="A3" s="9" t="str">
+        <f>VLOOKUP(B3,__Sheet3!A:B,2,FALSE)</f>
+        <v>Summon</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:10">
+      <c r="A4" s="14" t="str">
+        <f>VLOOKUP(B4,__Sheet3!A:B,2,FALSE)</f>
+        <v>Ring</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" ht="39" customHeight="1" spans="1:10">
+      <c r="A5" s="14" t="str">
+        <f>VLOOKUP(B5,__Sheet3!A:B,2,FALSE)</f>
+        <v>Surround</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="44"/>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:10">
+      <c r="A6" s="19" t="str">
+        <f>VLOOKUP(B6,__Sheet3!A:B,2,FALSE)</f>
+        <v>Aoe</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="44"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A7" s="24" t="str">
+        <f>VLOOKUP(B7,__Sheet3!A:B,2,FALSE)</f>
+        <v>Bounce</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A8" s="29" t="str">
+        <f>VLOOKUP(B8,__Sheet3!A:B,2,FALSE)</f>
+        <v>Missile</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A9" s="29" t="str">
+        <f>VLOOKUP(B9,__Sheet3!A:B,2,FALSE)</f>
+        <v>Targeting</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="44"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A10" s="29" t="str">
+        <f>VLOOKUP(B10,__Sheet3!A:B,2,FALSE)</f>
+        <v>Dot</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="44"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A11" s="29" t="str">
+        <f>VLOOKUP(B11,__Sheet3!A:B,2,FALSE)</f>
+        <v>Orb</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="44"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A12" s="29" t="str">
+        <f>VLOOKUP(B12,__Sheet3!A:B,2,FALSE)</f>
+        <v>Resource</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="44"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A13" s="29" t="str">
+        <f>VLOOKUP(B13,__Sheet3!A:B,2,FALSE)</f>
+        <v>Growth</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="44"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A14" s="29" t="str">
+        <f>VLOOKUP(B14,__Sheet3!A:B,2,FALSE)</f>
+        <v>Buff</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="44"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A15" s="35" t="str">
+        <f>VLOOKUP(B15,__Sheet3!A:B,2,FALSE)</f>
+        <v>All</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>